--- a/VA_result_BFA.xlsx
+++ b/VA_result_BFA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -390,6 +390,54 @@
   </si>
   <si>
     <t xml:space="preserve">2025-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">VA_CST</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -2433,6 +2481,182 @@
         <v>241.685297894333</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2443098.70435547</v>
+      </c>
+      <c r="C122" t="n">
+        <v>244.309870435547</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2456762.22563047</v>
+      </c>
+      <c r="C123" t="n">
+        <v>245.676222563047</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2458698.00914166</v>
+      </c>
+      <c r="C124" t="n">
+        <v>245.869800914166</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2537452.06926543</v>
+      </c>
+      <c r="C125" t="n">
+        <v>253.745206926542</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2563697.79467757</v>
+      </c>
+      <c r="C126" t="n">
+        <v>256.369779467757</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2577361.31595257</v>
+      </c>
+      <c r="C127" t="n">
+        <v>257.736131595257</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2579297.09946375</v>
+      </c>
+      <c r="C128" t="n">
+        <v>257.929709946375</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2658051.15958752</v>
+      </c>
+      <c r="C129" t="n">
+        <v>265.805115958752</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2684296.88499966</v>
+      </c>
+      <c r="C130" t="n">
+        <v>268.429688499966</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2697960.40627466</v>
+      </c>
+      <c r="C131" t="n">
+        <v>269.796040627466</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2699896.18978585</v>
+      </c>
+      <c r="C132" t="n">
+        <v>269.989618978585</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2778650.24990962</v>
+      </c>
+      <c r="C133" t="n">
+        <v>277.865024990962</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2804895.97532176</v>
+      </c>
+      <c r="C134" t="n">
+        <v>280.489597532176</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2818559.49659676</v>
+      </c>
+      <c r="C135" t="n">
+        <v>281.855949659676</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2820495.28010795</v>
+      </c>
+      <c r="C136" t="n">
+        <v>282.049528010795</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2899249.34023172</v>
+      </c>
+      <c r="C137" t="n">
+        <v>289.924934023172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2722,7 @@
         <v>7.50960890085308</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2518,7 +2742,7 @@
         <v>15.9282369619144</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2538,7 +2762,7 @@
         <v>10.6481782642332</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2558,7 +2782,7 @@
         <v>-2.5941145894306</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2578,7 +2802,7 @@
         <v>1.58510463517205</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -2598,7 +2822,7 @@
         <v>0.0740353666991211</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2618,7 +2842,7 @@
         <v>-2.03691850134297</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2638,7 +2862,7 @@
         <v>-1.81023124957911</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2658,7 +2882,7 @@
         <v>0.468505057892155</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -2678,7 +2902,7 @@
         <v>6.22315446624875</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2698,7 +2922,7 @@
         <v>3.22151974255809</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2718,7 +2942,7 @@
         <v>15.9668984521711</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2738,7 +2962,7 @@
         <v>-1.50220620157437</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2758,7 +2982,7 @@
         <v>1.63033657391645</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2778,7 +3002,7 @@
         <v>-9.55056975953046</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +3022,7 @@
         <v>6.54662725250061</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2818,7 +3042,7 @@
         <v>11.8473102531406</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2838,7 +3062,7 @@
         <v>17.7917209556396</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2858,7 +3082,7 @@
         <v>22.8532295922856</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2878,7 +3102,7 @@
         <v>19.1170596010375</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -2898,7 +3122,7 @@
         <v>15.3039906054357</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -2918,7 +3142,7 @@
         <v>10.702290794299</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -2938,7 +3162,7 @@
         <v>9.74267946918122</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2958,7 +3182,7 @@
         <v>4.99630838356073</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
@@ -2972,13 +3196,13 @@
         <v>187.100730048779</v>
       </c>
       <c r="D27" t="n">
-        <v>8.74874345107266</v>
+        <v>8.74874345107264</v>
       </c>
       <c r="E27" t="n">
         <v>6.79501524911539</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>628758.158948726</v>
+        <v>642347.915198216</v>
       </c>
       <c r="C28" t="n">
         <v>199.160639080988</v>
       </c>
       <c r="D28" t="n">
-        <v>4.68486075269043</v>
+        <v>6.94748227162156</v>
       </c>
       <c r="E28" t="n">
         <v>6.44567716495021</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>656896.367287672</v>
+        <v>679474.549089557</v>
       </c>
       <c r="C29" t="n">
         <v>211.220548113197</v>
       </c>
       <c r="D29" t="n">
-        <v>4.47520369135137</v>
+        <v>5.77983255069556</v>
       </c>
       <c r="E29" t="n">
         <v>6.05536771113955</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>685034.575626619</v>
+        <v>713557.808423364</v>
       </c>
       <c r="C30" t="n">
         <v>223.280457145407</v>
       </c>
       <c r="D30" t="n">
-        <v>4.283507983935</v>
+        <v>5.01612008565666</v>
       </c>
       <c r="E30" t="n">
         <v>5.70962869850438</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>713172.783965566</v>
+        <v>745628.143821211</v>
       </c>
       <c r="C31" t="n">
         <v>235.340366177616</v>
       </c>
       <c r="D31" t="n">
-        <v>4.10756031010668</v>
+        <v>4.49442708344938</v>
       </c>
       <c r="E31" t="n">
         <v>5.4012380601477</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>776367.107514604</v>
+      </c>
+      <c r="C32" t="n">
+        <v>247.400275209826</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.1225594752716</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.12445409518383</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>806225.486212332</v>
+      </c>
+      <c r="C33" t="n">
+        <v>259.460184242035</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.84590980332926</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.8746546550853</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>835501.435576467</v>
+      </c>
+      <c r="C34" t="n">
+        <v>271.520093274245</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.63123590915906</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.64807695540663</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>864392.15928913</v>
+      </c>
+      <c r="C35" t="n">
+        <v>283.580002306455</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.45789037366884</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.44162672706097</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3656,7 +3960,7 @@
         <v>245018.911605443</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3691,7 +3995,7 @@
         <v>245018.911605443</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3726,7 +4030,7 @@
         <v>245018.911605443</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3761,7 +4065,7 @@
         <v>245018.911605443</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3796,7 +4100,7 @@
         <v>284050.0887245</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3831,7 +4135,7 @@
         <v>284050.0887245</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3866,7 +4170,7 @@
         <v>284050.0887245</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3901,7 +4205,7 @@
         <v>284050.0887245</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3936,7 +4240,7 @@
         <v>314294.159744903</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3971,7 +4275,7 @@
         <v>314294.159744903</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -4006,7 +4310,7 @@
         <v>314294.159744903</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4041,7 +4345,7 @@
         <v>314294.159744903</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4076,7 +4380,7 @@
         <v>306141.1327504</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4111,7 +4415,7 @@
         <v>306141.1327504</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4146,7 +4450,7 @@
         <v>306141.1327504</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4181,7 +4485,7 @@
         <v>306141.1327504</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4216,7 +4520,7 @@
         <v>310994.232700713</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4251,7 +4555,7 @@
         <v>310994.232700713</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4286,7 +4590,7 @@
         <v>310994.232700713</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4321,7 +4625,7 @@
         <v>310994.232700713</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4356,7 +4660,7 @@
         <v>311224.498451755</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4391,7 +4695,7 @@
         <v>311224.498451755</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4426,7 +4730,7 @@
         <v>311224.498451755</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4461,7 +4765,7 @@
         <v>311224.498451755</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4496,7 +4800,7 @@
         <v>304885.085820526</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4531,7 +4835,7 @@
         <v>304885.085820526</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4566,7 +4870,7 @@
         <v>304885.085820526</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4601,7 +4905,7 @@
         <v>304885.085820526</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4636,7 +4940,7 @@
         <v>299365.812245278</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4671,7 +4975,7 @@
         <v>299365.812245278</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4706,7 +5010,7 @@
         <v>299365.812245278</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4741,7 +5045,7 @@
         <v>299365.812245278</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4776,7 +5080,7 @@
         <v>300768.312726926</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4811,7 +5115,7 @@
         <v>300768.312726926</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4846,7 +5150,7 @@
         <v>300768.312726926</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4881,7 +5185,7 @@
         <v>300768.312726926</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4916,7 +5220,7 @@
         <v>319485.773603163</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4951,7 +5255,7 @@
         <v>319485.773603163</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4986,7 +5290,7 @@
         <v>319485.773603163</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -5021,7 +5325,7 @@
         <v>319485.773603163</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5056,7 +5360,7 @@
         <v>329776.799130802</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5091,7 +5395,7 @@
         <v>329776.799130802</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5126,7 +5430,7 @@
         <v>329776.799130802</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5161,7 +5465,7 @@
         <v>329776.799130802</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5196,7 +5500,7 @@
         <v>382431.158484145</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5231,7 +5535,7 @@
         <v>382431.158484145</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5266,7 +5570,7 @@
         <v>382431.158484145</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5301,7 +5605,7 @@
         <v>382431.158484145</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5336,7 +5640,7 @@
         <v>376684.608659695</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5371,7 +5675,7 @@
         <v>376684.608659695</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5406,7 +5710,7 @@
         <v>376684.608659695</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5441,7 +5745,7 @@
         <v>376684.608659695</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5476,7 +5780,7 @@
         <v>382826.042770239</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5511,7 +5815,7 @@
         <v>382826.042770239</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5546,7 +5850,7 @@
         <v>382826.042770239</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5581,7 +5885,7 @@
         <v>382826.042770239</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5616,7 +5920,7 @@
         <v>346264.016366973</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5651,7 +5955,7 @@
         <v>346264.016366973</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5686,7 +5990,7 @@
         <v>346264.016366973</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5721,7 +6025,7 @@
         <v>346264.016366973</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5756,7 +6060,7 @@
         <v>379343.275171419</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5791,7 +6095,7 @@
         <v>379343.275171419</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5826,7 +6130,7 @@
         <v>379343.275171419</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5861,7 +6165,7 @@
         <v>379343.275171419</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5896,7 +6200,7 @@
         <v>421814.160658257</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5931,7 +6235,7 @@
         <v>421814.160658257</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5966,7 +6270,7 @@
         <v>421814.160658257</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -6001,7 +6305,7 @@
         <v>421814.160658257</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6036,7 +6340,7 @@
         <v>452860.893267646</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6071,7 +6375,7 @@
         <v>452860.893267646</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6106,7 +6410,7 @@
         <v>452860.893267646</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6141,7 +6445,7 @@
         <v>452860.893267646</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6176,7 +6480,7 @@
         <v>526647.543746421</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6211,7 +6515,7 @@
         <v>526647.543746421</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6246,7 +6550,7 @@
         <v>526647.543746421</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6281,7 +6585,7 @@
         <v>526647.543746421</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6316,7 +6620,7 @@
         <v>562245.972068693</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6351,7 +6655,7 @@
         <v>562245.972068693</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6386,7 +6690,7 @@
         <v>562245.972068693</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6421,7 +6725,7 @@
         <v>562245.972068693</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6456,7 +6760,7 @@
         <v>671874.391658209</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6491,7 +6795,7 @@
         <v>671874.391658209</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6526,7 +6830,7 @@
         <v>671874.391658209</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6561,7 +6865,7 @@
         <v>671874.391658209</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6596,7 +6900,7 @@
         <v>541910.771208585</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6631,7 +6935,7 @@
         <v>541910.771208585</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6666,7 +6970,7 @@
         <v>541910.771208585</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6701,7 +7005,7 @@
         <v>541910.771208585</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6736,7 +7040,7 @@
         <v>564656.523405211</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6771,7 +7075,7 @@
         <v>564656.523405211</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6806,7 +7110,7 @@
         <v>564656.523405211</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6841,7 +7145,7 @@
         <v>564656.523405211</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6876,7 +7180,7 @@
         <v>552300.588999454</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6911,7 +7215,7 @@
         <v>552300.588999454</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6946,7 +7250,7 @@
         <v>552300.588999454</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6981,7 +7285,7 @@
         <v>552300.588999454</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>148352.352716351</v>
+        <v>147647.636775952</v>
       </c>
       <c r="C98" t="n">
         <v>46.0025813186251</v>
       </c>
       <c r="D98" t="n">
-        <v>-60683.123759232</v>
+        <v>-16236.2531739967</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>149149.34672197</v>
+        <v>148726.517157731</v>
       </c>
       <c r="C99" t="n">
         <v>46.3441693505</v>
       </c>
       <c r="D99" t="n">
-        <v>-60683.123759232</v>
+        <v>-15810.0642803213</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>149262.261088885</v>
+        <v>149403.204276965</v>
       </c>
       <c r="C100" t="n">
         <v>46.3925639382797</v>
       </c>
       <c r="D100" t="n">
-        <v>-60683.123759232</v>
+        <v>-14957.6864929703</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>153855.990082574</v>
+        <v>154842.592399132</v>
       </c>
       <c r="C101" t="n">
         <v>48.3614154413739</v>
       </c>
       <c r="D101" t="n">
-        <v>-60683.123759232</v>
+        <v>-13679.1198119438</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>155386.904801087</v>
+        <v>157501.052622283</v>
       </c>
       <c r="C102" t="n">
         <v>49.0175585766774</v>
       </c>
       <c r="D102" t="n">
-        <v>-60683.123759232</v>
+        <v>-11974.3642372418</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>156183.898806707</v>
+        <v>159262.381326229</v>
       </c>
       <c r="C103" t="n">
         <v>49.3591466085524</v>
       </c>
       <c r="D103" t="n">
-        <v>-60683.123759232</v>
+        <v>-10516.3699070021</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>156296.813173622</v>
+        <v>160176.419585157</v>
       </c>
       <c r="C104" t="n">
         <v>49.407541196332</v>
       </c>
       <c r="D104" t="n">
-        <v>-60683.123759232</v>
+        <v>-9305.13682122453</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>160890.542167311</v>
+        <v>165408.061664548</v>
       </c>
       <c r="C105" t="n">
         <v>51.3763926994262</v>
       </c>
       <c r="D105" t="n">
-        <v>-60683.123759232</v>
+        <v>-8340.66497990921</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>162421.456885824</v>
+        <v>167413.67866245</v>
       </c>
       <c r="C106" t="n">
         <v>52.0325358347297</v>
       </c>
       <c r="D106" t="n">
-        <v>-60683.123759232</v>
+        <v>-7622.95438305611</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>163218.450891443</v>
+        <v>168661.483049363</v>
       </c>
       <c r="C107" t="n">
         <v>52.3741238666047</v>
       </c>
       <c r="D107" t="n">
-        <v>-60683.123759232</v>
+        <v>-6941.36636068115</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>163331.365258358</v>
+        <v>169201.315899476</v>
       </c>
       <c r="C108" t="n">
         <v>52.4225184543843</v>
       </c>
       <c r="D108" t="n">
-        <v>-60683.123759232</v>
+        <v>-6295.90091278432</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>167925.094252047</v>
+        <v>174198.071478268</v>
       </c>
       <c r="C109" t="n">
         <v>54.3913699574786</v>
       </c>
       <c r="D109" t="n">
-        <v>-60683.123759232</v>
+        <v>-5686.55803936564</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>169456.00897056</v>
+        <v>176108.120883788</v>
       </c>
       <c r="C110" t="n">
         <v>55.047513092782</v>
       </c>
       <c r="D110" t="n">
-        <v>-60683.123759232</v>
+        <v>-5113.33774042508</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>170253.00297618</v>
+        <v>177248.247278593</v>
       </c>
       <c r="C111" t="n">
         <v>55.389101124657</v>
       </c>
       <c r="D111" t="n">
-        <v>-60683.123759232</v>
+        <v>-4594.54993902811</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>170365.917343095</v>
+        <v>177668.291736874</v>
       </c>
       <c r="C112" t="n">
         <v>55.4374957124367</v>
       </c>
       <c r="D112" t="n">
-        <v>-60683.123759232</v>
+        <v>-4130.19463517472</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>174959.646336784</v>
+        <v>182533.148524109</v>
       </c>
       <c r="C113" t="n">
         <v>57.4063472155309</v>
       </c>
       <c r="D113" t="n">
-        <v>-60683.123759232</v>
+        <v>-3720.2718288649</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>176490.561055297</v>
+        <v>184299.188738347</v>
       </c>
       <c r="C114" t="n">
         <v>58.0624903508344</v>
       </c>
       <c r="D114" t="n">
-        <v>-60683.123759232</v>
+        <v>-3364.78152009866</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>177287.555060917</v>
+        <v>185312.317854601</v>
       </c>
       <c r="C115" t="n">
         <v>58.4040783827094</v>
       </c>
       <c r="D115" t="n">
-        <v>-60683.123759232</v>
+        <v>-3038.00310341599</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>177400.469427831</v>
+        <v>185622.37694706</v>
       </c>
       <c r="C116" t="n">
         <v>58.452472970489</v>
       </c>
       <c r="D116" t="n">
-        <v>-60683.123759232</v>
+        <v>-2739.93657881689</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>181994.19842152</v>
+        <v>190394.260281203</v>
       </c>
       <c r="C117" t="n">
         <v>60.4213244735832</v>
       </c>
       <c r="D117" t="n">
-        <v>-60683.123759232</v>
+        <v>-2470.58194630135</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>192084.33895508</v>
+      </c>
+      <c r="C118" t="n">
+        <v>61.0774676088868</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-2229.93920586938</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>193026.919737836</v>
+      </c>
+      <c r="C119" t="n">
+        <v>61.4190556407618</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-2009.82403632206</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>193271.843703659</v>
+      </c>
+      <c r="C120" t="n">
+        <v>61.4674502285414</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-1810.23643765938</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>197984.005118029</v>
+      </c>
+      <c r="C121" t="n">
+        <v>63.4363017316356</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-1631.17640988136</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>199619.775078996</v>
+      </c>
+      <c r="C122" t="n">
+        <v>64.0924448669392</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1472.64395298798</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>200512.295796794</v>
+      </c>
+      <c r="C123" t="n">
+        <v>64.4340328988142</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-1328.21546256401</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>200711.408345612</v>
+      </c>
+      <c r="C124" t="n">
+        <v>64.4824274865938</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1197.89093860946</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>205382.00699093</v>
+      </c>
+      <c r="C125" t="n">
+        <v>66.451278989688</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-1081.67038112431</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>206980.462830796</v>
+      </c>
+      <c r="C126" t="n">
+        <v>67.1074221249916</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-979.553790108572</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>207841.377735848</v>
+      </c>
+      <c r="C127" t="n">
+        <v>67.4490101568665</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-882.910675309319</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>208014.592780272</v>
+      </c>
+      <c r="C128" t="n">
+        <v>67.4974047446462</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-791.74103672655</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>212665.00222955</v>
+      </c>
+      <c r="C129" t="n">
+        <v>69.4662562477404</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-706.044874360262</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>214248.97718173</v>
+      </c>
+      <c r="C130" t="n">
+        <v>70.122399383044</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-625.822188210458</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>215085.7663626</v>
+      </c>
+      <c r="C131" t="n">
+        <v>70.463987414919</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-565.655173598105</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>215225.210846348</v>
+      </c>
+      <c r="C132" t="n">
+        <v>70.5123820026987</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-525.543830523203</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>219832.204898453</v>
+      </c>
+      <c r="C133" t="n">
+        <v>72.4812335057929</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-505.488158985752</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>148352.352716351</v>
+        <v>147647.636775952</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>149149.34672197</v>
+        <v>148726.517157731</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>149262.261088885</v>
+        <v>149403.204276965</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>153855.990082574</v>
+        <v>154842.592399132</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>155386.904801087</v>
+        <v>157501.052622283</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>156183.898806707</v>
+        <v>159262.381326229</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>156296.813173622</v>
+        <v>160176.419585157</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>160890.542167311</v>
+        <v>165408.061664548</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>162421.456885824</v>
+        <v>167413.67866245</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>163218.450891443</v>
+        <v>168661.483049363</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>163331.365258358</v>
+        <v>169201.315899476</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>167925.094252047</v>
+        <v>174198.071478268</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>169456.00897056</v>
+        <v>176108.120883788</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>170253.00297618</v>
+        <v>177248.247278593</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>170365.917343095</v>
+        <v>177668.291736874</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>174959.646336784</v>
+        <v>182533.148524109</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>176490.561055297</v>
+        <v>184299.188738347</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>177287.555060917</v>
+        <v>185312.317854601</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>177400.469427831</v>
+        <v>185622.37694706</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>181994.19842152</v>
+        <v>190394.260281203</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>192084.33895508</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>193026.919737836</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>193271.843703659</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>197984.005118029</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>199619.775078996</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>200512.295796794</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>200711.408345612</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>205382.00699093</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>206980.462830796</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>207841.377735848</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>208014.592780272</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>212665.00222955</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>214248.97718173</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>215085.7663626</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>215225.210846348</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>219832.204898453</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_BFA.xlsx
+++ b/VA_result_BFA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -98,249 +98,249 @@
     <t xml:space="preserve">2020-01-01</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021-01-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-04-01</t>
   </si>
   <si>
@@ -509,12 +509,6 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">time</t>
   </si>
   <si>
@@ -539,76 +533,61 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.62376795237651e-13</t>
+    <t xml:space="preserve">2.8421709430404e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2370555648813e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.6843418860808e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4210854715202e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8159700933611e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.2632564145606e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.1316282072803e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.06057393370429e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.83693077310454e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.90798504668055e-13</t>
   </si>
   <si>
     <t xml:space="preserve">-4.54747350886464e-13</t>
   </si>
   <si>
-    <t xml:space="preserve">-7.8159700933611e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.2370555648813e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.18696197104873e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.69482222595252e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.05009359383257e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.48165940522449e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.11590769747272e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.25801624462474e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.03961325396085e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.82645043323282e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.47117906535277e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.12114786740858e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.35003119794419e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.8421709430404e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6843418860808e-14</t>
+    <t xml:space="preserve">-4.47641923528863e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.76587649952853e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.98427949019242e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.62900812231237e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.70530256582424e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2632564145606e-14</t>
   </si>
   <si>
     <t xml:space="preserve">-1.4210854715202e-13</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84741111297626e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.8421709430404e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.55795384873636e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.6843418860808e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.13686837721616e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.70530256582424e-13</t>
+    <t xml:space="preserve">1.13686837721616e-13</t>
   </si>
 </sst>
 </file>
@@ -1082,16 +1061,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1108,7 +1077,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -1118,17 +1087,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1138,17 +1107,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1158,17 +1127,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1178,17 +1147,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1198,17 +1167,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -1218,17 +1187,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1238,17 +1207,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -1258,17 +1227,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -1278,17 +1247,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
@@ -1298,17 +1267,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1318,17 +1287,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -1338,17 +1307,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
@@ -1358,17 +1327,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -1378,17 +1347,17 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
@@ -1398,17 +1367,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
@@ -1418,17 +1387,17 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
@@ -1438,17 +1407,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -1458,17 +1427,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -1478,17 +1447,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
@@ -1498,17 +1467,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
@@ -1518,17 +1487,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
@@ -1538,17 +1507,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
@@ -1558,17 +1527,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
@@ -1578,17 +1547,17 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
@@ -1598,42 +1567,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
@@ -1935,16 +1904,6 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1961,7 +1920,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -1971,17 +1930,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1991,17 +1950,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -2011,17 +1970,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2031,17 +1990,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2051,17 +2010,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -2071,17 +2030,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -2091,17 +2050,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -2111,17 +2070,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
@@ -2131,17 +2090,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -2151,17 +2110,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -2171,17 +2130,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
@@ -2191,17 +2150,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
@@ -2211,17 +2170,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
@@ -2231,17 +2190,17 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
@@ -2251,17 +2210,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
@@ -2271,17 +2230,17 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
@@ -2291,17 +2250,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -2311,17 +2270,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74">
@@ -2331,17 +2290,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
@@ -2351,17 +2310,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
@@ -2371,17 +2330,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -2391,17 +2350,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
@@ -2411,17 +2370,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
@@ -2431,57 +2390,17 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2500,28 +2419,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -2535,24 +2454,24 @@
         <v>40.1968810551741</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0844513765938</v>
+        <v>10.0844513765939</v>
       </c>
       <c r="E2" t="n">
-        <v>10.0844513765938</v>
+        <v>10.0844513765939</v>
       </c>
       <c r="F2" t="n">
-        <v>40.1968810551738</v>
+        <v>40.1968810551741</v>
       </c>
       <c r="G2" t="n">
-        <v>10.0844513765938</v>
+        <v>10.0844513765939</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>40.1968810551741</v>
@@ -2561,24 +2480,24 @@
         <v>40.1968810551741</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0703589314736</v>
+        <v>10.0703589314737</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0703589314736</v>
+        <v>10.0703589314737</v>
       </c>
       <c r="F3" t="n">
-        <v>40.1968810551738</v>
+        <v>40.1968810551741</v>
       </c>
       <c r="G3" t="n">
-        <v>10.0703589314736</v>
+        <v>10.0703589314737</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
         <v>40.1968810551741</v>
@@ -2587,24 +2506,24 @@
         <v>40.1968810551741</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0421740412334</v>
+        <v>10.0421740412335</v>
       </c>
       <c r="E4" t="n">
-        <v>10.0421740412334</v>
+        <v>10.0421740412335</v>
       </c>
       <c r="F4" t="n">
-        <v>40.1968810551738</v>
+        <v>40.1968810551741</v>
       </c>
       <c r="G4" t="n">
-        <v>10.0421740412334</v>
+        <v>10.0421740412335</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>40.1968810551741</v>
@@ -2613,19 +2532,19 @@
         <v>40.1968810551741</v>
       </c>
       <c r="D5" t="n">
-        <v>9.99989670587295</v>
+        <v>9.99989670587307</v>
       </c>
       <c r="E5" t="n">
-        <v>9.99989670587295</v>
+        <v>9.99989670587307</v>
       </c>
       <c r="F5" t="n">
-        <v>40.1968810551738</v>
+        <v>40.1968810551741</v>
       </c>
       <c r="G5" t="n">
-        <v>9.99989670587295</v>
+        <v>9.99989670587307</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -2639,24 +2558,24 @@
         <v>41.0175247589768</v>
       </c>
       <c r="D6" t="n">
-        <v>9.94352692539238</v>
+        <v>9.94352692539255</v>
       </c>
       <c r="E6" t="n">
-        <v>9.94352692539238</v>
+        <v>9.94352692539255</v>
       </c>
       <c r="F6" t="n">
-        <v>41.0175247589764</v>
+        <v>41.0175247589769</v>
       </c>
       <c r="G6" t="n">
-        <v>9.94352692539238</v>
+        <v>9.94352692539255</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>41.0175247589768</v>
@@ -2665,24 +2584,24 @@
         <v>41.0175247589768</v>
       </c>
       <c r="D7" t="n">
-        <v>10.0453207189408</v>
+        <v>10.045320718941</v>
       </c>
       <c r="E7" t="n">
-        <v>10.0453207189408</v>
+        <v>10.045320718941</v>
       </c>
       <c r="F7" t="n">
-        <v>41.0175247589764</v>
+        <v>41.0175247589769</v>
       </c>
       <c r="G7" t="n">
-        <v>10.0453207189408</v>
+        <v>10.045320718941</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>41.0175247589768</v>
@@ -2691,24 +2610,24 @@
         <v>41.0175247589768</v>
       </c>
       <c r="D8" t="n">
-        <v>10.3052780865183</v>
+        <v>10.3052780865185</v>
       </c>
       <c r="E8" t="n">
-        <v>10.3052780865183</v>
+        <v>10.3052780865185</v>
       </c>
       <c r="F8" t="n">
-        <v>41.0175247589764</v>
+        <v>41.0175247589769</v>
       </c>
       <c r="G8" t="n">
-        <v>10.3052780865183</v>
+        <v>10.3052780865185</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>41.0175247589768</v>
@@ -2717,19 +2636,19 @@
         <v>41.0175247589768</v>
       </c>
       <c r="D9" t="n">
-        <v>10.7233990281248</v>
+        <v>10.7233990281249</v>
       </c>
       <c r="E9" t="n">
-        <v>10.7233990281248</v>
+        <v>10.7233990281249</v>
       </c>
       <c r="F9" t="n">
-        <v>41.0175247589764</v>
+        <v>41.0175247589769</v>
       </c>
       <c r="G9" t="n">
-        <v>10.7233990281248</v>
+        <v>10.7233990281249</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -2743,24 +2662,24 @@
         <v>44.0123186003889</v>
       </c>
       <c r="D10" t="n">
-        <v>11.2996835437604</v>
+        <v>11.2996835437603</v>
       </c>
       <c r="E10" t="n">
-        <v>11.2996835437604</v>
+        <v>11.2996835437603</v>
       </c>
       <c r="F10" t="n">
         <v>44.0123186003888</v>
       </c>
       <c r="G10" t="n">
-        <v>11.2996835437604</v>
+        <v>11.2996835437603</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>44.0123186003889</v>
@@ -2781,12 +2700,12 @@
         <v>11.4115557925493</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>44.0123186003889</v>
@@ -2807,12 +2726,12 @@
         <v>11.0590157744917</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
         <v>44.0123186003889</v>
@@ -2821,19 +2740,19 @@
         <v>44.0123186003889</v>
       </c>
       <c r="D13" t="n">
-        <v>10.2420634895874</v>
+        <v>10.2420634895875</v>
       </c>
       <c r="E13" t="n">
-        <v>10.2420634895874</v>
+        <v>10.2420634895875</v>
       </c>
       <c r="F13" t="n">
         <v>44.0123186003888</v>
       </c>
       <c r="G13" t="n">
-        <v>10.2420634895874</v>
+        <v>10.2420634895875</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14">
@@ -2847,24 +2766,24 @@
         <v>33.2677121635604</v>
       </c>
       <c r="D14" t="n">
-        <v>8.96069893783663</v>
+        <v>8.9606989378369</v>
       </c>
       <c r="E14" t="n">
-        <v>8.96069893783663</v>
+        <v>8.9606989378369</v>
       </c>
       <c r="F14" t="n">
-        <v>33.2677121635603</v>
+        <v>33.2677121635604</v>
       </c>
       <c r="G14" t="n">
-        <v>8.96069893783663</v>
+        <v>8.9606989378369</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
         <v>33.2677121635604</v>
@@ -2873,24 +2792,24 @@
         <v>33.2677121635604</v>
       </c>
       <c r="D15" t="n">
-        <v>8.19064475835768</v>
+        <v>8.19064475835792</v>
       </c>
       <c r="E15" t="n">
-        <v>8.19064475835768</v>
+        <v>8.19064475835792</v>
       </c>
       <c r="F15" t="n">
-        <v>33.2677121635603</v>
+        <v>33.2677121635604</v>
       </c>
       <c r="G15" t="n">
-        <v>8.19064475835768</v>
+        <v>8.19064475835792</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
         <v>33.2677121635604</v>
@@ -2899,24 +2818,24 @@
         <v>33.2677121635604</v>
       </c>
       <c r="D16" t="n">
-        <v>7.93190095115061</v>
+        <v>7.93190095115062</v>
       </c>
       <c r="E16" t="n">
-        <v>7.93190095115061</v>
+        <v>7.93190095115062</v>
       </c>
       <c r="F16" t="n">
-        <v>33.2677121635603</v>
+        <v>33.2677121635604</v>
       </c>
       <c r="G16" t="n">
-        <v>7.93190095115061</v>
+        <v>7.93190095115062</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
         <v>33.2677121635604</v>
@@ -2925,19 +2844,19 @@
         <v>33.2677121635604</v>
       </c>
       <c r="D17" t="n">
-        <v>8.18446751621541</v>
+        <v>8.18446751621499</v>
       </c>
       <c r="E17" t="n">
-        <v>8.18446751621541</v>
+        <v>8.18446751621499</v>
       </c>
       <c r="F17" t="n">
-        <v>33.2677121635603</v>
+        <v>33.2677121635604</v>
       </c>
       <c r="G17" t="n">
-        <v>8.18446751621541</v>
+        <v>8.18446751621499</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
@@ -2951,24 +2870,24 @@
         <v>40.8430585441254</v>
       </c>
       <c r="D18" t="n">
-        <v>8.9483444535521</v>
+        <v>8.94834445355102</v>
       </c>
       <c r="E18" t="n">
-        <v>8.9483444535521</v>
+        <v>8.94834445355102</v>
       </c>
       <c r="F18" t="n">
-        <v>40.8430585441249</v>
+        <v>40.8430585441254</v>
       </c>
       <c r="G18" t="n">
-        <v>8.9483444535521</v>
+        <v>8.94834445355102</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
         <v>40.8430585441254</v>
@@ -2977,24 +2896,24 @@
         <v>40.8430585441254</v>
       </c>
       <c r="D19" t="n">
-        <v>9.75886330147843</v>
+        <v>9.75886330147757</v>
       </c>
       <c r="E19" t="n">
-        <v>9.75886330147843</v>
+        <v>9.75886330147757</v>
       </c>
       <c r="F19" t="n">
-        <v>40.8430585441249</v>
+        <v>40.8430585441254</v>
       </c>
       <c r="G19" t="n">
-        <v>9.75886330147843</v>
+        <v>9.75886330147757</v>
       </c>
       <c r="H19" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
         <v>40.8430585441254</v>
@@ -3003,24 +2922,24 @@
         <v>40.8430585441254</v>
       </c>
       <c r="D20" t="n">
-        <v>10.6160240599944</v>
+        <v>10.6160240599946</v>
       </c>
       <c r="E20" t="n">
-        <v>10.6160240599944</v>
+        <v>10.6160240599946</v>
       </c>
       <c r="F20" t="n">
-        <v>40.8430585441249</v>
+        <v>40.8430585441254</v>
       </c>
       <c r="G20" t="n">
-        <v>10.6160240599944</v>
+        <v>10.6160240599946</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
         <v>40.8430585441254</v>
@@ -3029,19 +2948,19 @@
         <v>40.8430585441254</v>
       </c>
       <c r="D21" t="n">
-        <v>11.5198267290999</v>
+        <v>11.5198267291022</v>
       </c>
       <c r="E21" t="n">
-        <v>11.5198267290999</v>
+        <v>11.5198267291022</v>
       </c>
       <c r="F21" t="n">
-        <v>40.8430585441249</v>
+        <v>40.8430585441254</v>
       </c>
       <c r="G21" t="n">
-        <v>11.5198267290999</v>
+        <v>11.5198267291022</v>
       </c>
       <c r="H21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
@@ -3055,24 +2974,24 @@
         <v>52.1622289840789</v>
       </c>
       <c r="D22" t="n">
-        <v>12.4702713087952</v>
+        <v>12.4702713088003</v>
       </c>
       <c r="E22" t="n">
-        <v>12.4702713087952</v>
+        <v>12.4702713088003</v>
       </c>
       <c r="F22" t="n">
-        <v>52.1622289840785</v>
+        <v>52.1622289840788</v>
       </c>
       <c r="G22" t="n">
-        <v>12.4702713087952</v>
+        <v>12.4702713088003</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
         <v>52.1622289840789</v>
@@ -3081,16 +3000,16 @@
         <v>52.1622289840789</v>
       </c>
       <c r="D23" t="n">
-        <v>13.078563515563</v>
+        <v>13.0785635155673</v>
       </c>
       <c r="E23" t="n">
-        <v>13.078563515563</v>
+        <v>13.0785635155673</v>
       </c>
       <c r="F23" t="n">
-        <v>52.1622289840785</v>
+        <v>52.1622289840788</v>
       </c>
       <c r="G23" t="n">
-        <v>13.078563515563</v>
+        <v>13.0785635155673</v>
       </c>
       <c r="H23" t="s">
         <v>189</v>
@@ -3098,7 +3017,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
         <v>52.1622289840789</v>
@@ -3107,24 +3026,24 @@
         <v>52.1622289840789</v>
       </c>
       <c r="D24" t="n">
-        <v>13.3447033494036</v>
+        <v>13.3447033494032</v>
       </c>
       <c r="E24" t="n">
-        <v>13.3447033494036</v>
+        <v>13.3447033494032</v>
       </c>
       <c r="F24" t="n">
-        <v>52.1622289840785</v>
+        <v>52.1622289840788</v>
       </c>
       <c r="G24" t="n">
-        <v>13.3447033494036</v>
+        <v>13.3447033494032</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
         <v>52.1622289840789</v>
@@ -3133,19 +3052,19 @@
         <v>52.1622289840789</v>
       </c>
       <c r="D25" t="n">
-        <v>13.2686908103167</v>
+        <v>13.268690810308</v>
       </c>
       <c r="E25" t="n">
-        <v>13.2686908103167</v>
+        <v>13.268690810308</v>
       </c>
       <c r="F25" t="n">
-        <v>52.1622289840785</v>
+        <v>52.1622289840788</v>
       </c>
       <c r="G25" t="n">
-        <v>13.2686908103167</v>
+        <v>13.268690810308</v>
       </c>
       <c r="H25" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
@@ -3159,24 +3078,24 @@
         <v>50.9944759431876</v>
       </c>
       <c r="D26" t="n">
-        <v>12.8505258983026</v>
+        <v>12.8505258982817</v>
       </c>
       <c r="E26" t="n">
-        <v>12.8505258983026</v>
+        <v>12.8505258982817</v>
       </c>
       <c r="F26" t="n">
-        <v>50.9944759431872</v>
+        <v>50.9944759431874</v>
       </c>
       <c r="G26" t="n">
-        <v>12.8505258983026</v>
+        <v>12.8505258982817</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
         <v>50.9944759431876</v>
@@ -3185,24 +3104,24 @@
         <v>50.9944759431876</v>
       </c>
       <c r="D27" t="n">
-        <v>12.6424971684946</v>
+        <v>12.6424971684772</v>
       </c>
       <c r="E27" t="n">
-        <v>12.6424971684946</v>
+        <v>12.6424971684772</v>
       </c>
       <c r="F27" t="n">
-        <v>50.9944759431872</v>
+        <v>50.9944759431874</v>
       </c>
       <c r="G27" t="n">
-        <v>12.6424971684946</v>
+        <v>12.6424971684772</v>
       </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
         <v>50.9944759431876</v>
@@ -3211,16 +3130,16 @@
         <v>50.9944759431876</v>
       </c>
       <c r="D28" t="n">
-        <v>12.6446046208928</v>
+        <v>12.6446046208946</v>
       </c>
       <c r="E28" t="n">
-        <v>12.6446046208928</v>
+        <v>12.6446046208946</v>
       </c>
       <c r="F28" t="n">
-        <v>50.9944759431872</v>
+        <v>50.9944759431874</v>
       </c>
       <c r="G28" t="n">
-        <v>12.6446046208928</v>
+        <v>12.6446046208946</v>
       </c>
       <c r="H28" t="s">
         <v>173</v>
@@ -3228,7 +3147,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
         <v>50.9944759431876</v>
@@ -3237,16 +3156,16 @@
         <v>50.9944759431876</v>
       </c>
       <c r="D29" t="n">
-        <v>12.8568482554972</v>
+        <v>12.8568482555339</v>
       </c>
       <c r="E29" t="n">
-        <v>12.8568482554972</v>
+        <v>12.8568482555339</v>
       </c>
       <c r="F29" t="n">
-        <v>50.9944759431872</v>
+        <v>50.9944759431874</v>
       </c>
       <c r="G29" t="n">
-        <v>12.8568482554972</v>
+        <v>12.8568482555339</v>
       </c>
       <c r="H29" t="s">
         <v>174</v>
@@ -3263,16 +3182,16 @@
         <v>54.470996827612</v>
       </c>
       <c r="D30" t="n">
-        <v>13.2792280723077</v>
+        <v>13.2792280723951</v>
       </c>
       <c r="E30" t="n">
-        <v>13.2792280723077</v>
+        <v>13.2792280723951</v>
       </c>
       <c r="F30" t="n">
-        <v>54.4709968276116</v>
+        <v>54.4709968276118</v>
       </c>
       <c r="G30" t="n">
-        <v>13.2792280723077</v>
+        <v>13.2792280723951</v>
       </c>
       <c r="H30" t="s">
         <v>175</v>
@@ -3280,7 +3199,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
         <v>54.470996827612</v>
@@ -3289,16 +3208,16 @@
         <v>54.470996827612</v>
       </c>
       <c r="D31" t="n">
-        <v>13.58358845287</v>
+        <v>13.5835884529427</v>
       </c>
       <c r="E31" t="n">
-        <v>13.58358845287</v>
+        <v>13.5835884529427</v>
       </c>
       <c r="F31" t="n">
-        <v>54.4709968276116</v>
+        <v>54.4709968276118</v>
       </c>
       <c r="G31" t="n">
-        <v>13.58358845287</v>
+        <v>13.5835884529427</v>
       </c>
       <c r="H31" t="s">
         <v>176</v>
@@ -3306,7 +3225,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
         <v>54.470996827612</v>
@@ -3315,16 +3234,16 @@
         <v>54.470996827612</v>
       </c>
       <c r="D32" t="n">
-        <v>13.7699293971841</v>
+        <v>13.7699293971768</v>
       </c>
       <c r="E32" t="n">
-        <v>13.7699293971841</v>
+        <v>13.7699293971768</v>
       </c>
       <c r="F32" t="n">
-        <v>54.4709968276116</v>
+        <v>54.4709968276118</v>
       </c>
       <c r="G32" t="n">
-        <v>13.7699293971841</v>
+        <v>13.7699293971768</v>
       </c>
       <c r="H32" t="s">
         <v>177</v>
@@ -3332,7 +3251,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
         <v>54.470996827612</v>
@@ -3341,16 +3260,16 @@
         <v>54.470996827612</v>
       </c>
       <c r="D33" t="n">
-        <v>13.8382509052499</v>
+        <v>13.8382509050973</v>
       </c>
       <c r="E33" t="n">
-        <v>13.8382509052499</v>
+        <v>13.8382509050973</v>
       </c>
       <c r="F33" t="n">
-        <v>54.4709968276116</v>
+        <v>54.4709968276118</v>
       </c>
       <c r="G33" t="n">
-        <v>13.8382509052499</v>
+        <v>13.8382509050973</v>
       </c>
       <c r="H33" t="s">
         <v>178</v>
@@ -3367,16 +3286,16 @@
         <v>55.0935919400429</v>
       </c>
       <c r="D34" t="n">
-        <v>13.7885529770675</v>
+        <v>13.7885529767043</v>
       </c>
       <c r="E34" t="n">
-        <v>13.7885529770675</v>
+        <v>13.7885529767043</v>
       </c>
       <c r="F34" t="n">
-        <v>55.0935919400424</v>
+        <v>55.0935919400425</v>
       </c>
       <c r="G34" t="n">
-        <v>13.7885529770675</v>
+        <v>13.7885529767043</v>
       </c>
       <c r="H34" t="s">
         <v>179</v>
@@ -3384,7 +3303,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
         <v>55.0935919400429</v>
@@ -3393,16 +3312,16 @@
         <v>55.0935919400429</v>
       </c>
       <c r="D35" t="n">
-        <v>13.7626118089717</v>
+        <v>13.7626118086696</v>
       </c>
       <c r="E35" t="n">
-        <v>13.7626118089717</v>
+        <v>13.7626118086696</v>
       </c>
       <c r="F35" t="n">
-        <v>55.0935919400424</v>
+        <v>55.0935919400425</v>
       </c>
       <c r="G35" t="n">
-        <v>13.7626118089717</v>
+        <v>13.7626118086696</v>
       </c>
       <c r="H35" t="s">
         <v>180</v>
@@ -3410,7 +3329,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
         <v>55.0935919400429</v>
@@ -3419,16 +3338,16 @@
         <v>55.0935919400429</v>
       </c>
       <c r="D36" t="n">
-        <v>13.7604274009627</v>
+        <v>13.7604274009933</v>
       </c>
       <c r="E36" t="n">
-        <v>13.7604274009627</v>
+        <v>13.7604274009933</v>
       </c>
       <c r="F36" t="n">
-        <v>55.0935919400424</v>
+        <v>55.0935919400425</v>
       </c>
       <c r="G36" t="n">
-        <v>13.7604274009627</v>
+        <v>13.7604274009933</v>
       </c>
       <c r="H36" t="s">
         <v>181</v>
@@ -3436,7 +3355,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
         <v>55.0935919400429</v>
@@ -3445,16 +3364,16 @@
         <v>55.0935919400429</v>
       </c>
       <c r="D37" t="n">
-        <v>13.7819997530404</v>
+        <v>13.7819997536753</v>
       </c>
       <c r="E37" t="n">
-        <v>13.7819997530404</v>
+        <v>13.7819997536753</v>
       </c>
       <c r="F37" t="n">
-        <v>55.0935919400424</v>
+        <v>55.0935919400425</v>
       </c>
       <c r="G37" t="n">
-        <v>13.7819997530404</v>
+        <v>13.7819997536753</v>
       </c>
       <c r="H37" t="s">
         <v>182</v>
@@ -3471,16 +3390,16 @@
         <v>55.3770277535375</v>
       </c>
       <c r="D38" t="n">
-        <v>13.8273288652048</v>
+        <v>13.8273288667156</v>
       </c>
       <c r="E38" t="n">
-        <v>13.8273288652048</v>
+        <v>13.8273288667156</v>
       </c>
       <c r="F38" t="n">
-        <v>55.377027753537</v>
+        <v>55.3770277535371</v>
       </c>
       <c r="G38" t="n">
-        <v>13.8273288652048</v>
+        <v>13.8273288667156</v>
       </c>
       <c r="H38" t="s">
         <v>183</v>
@@ -3488,7 +3407,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
         <v>55.3770277535375</v>
@@ -3497,16 +3416,16 @@
         <v>55.3770277535375</v>
       </c>
       <c r="D39" t="n">
-        <v>13.8522317393424</v>
+        <v>13.8522317405992</v>
       </c>
       <c r="E39" t="n">
-        <v>13.8522317393424</v>
+        <v>13.8522317405992</v>
       </c>
       <c r="F39" t="n">
-        <v>55.377027753537</v>
+        <v>55.3770277535371</v>
       </c>
       <c r="G39" t="n">
-        <v>13.8522317393424</v>
+        <v>13.8522317405992</v>
       </c>
       <c r="H39" t="s">
         <v>184</v>
@@ -3514,7 +3433,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
         <v>55.3770277535375</v>
@@ -3523,16 +3442,16 @@
         <v>55.3770277535375</v>
       </c>
       <c r="D40" t="n">
-        <v>13.856708375453</v>
+        <v>13.8567083753261</v>
       </c>
       <c r="E40" t="n">
-        <v>13.856708375453</v>
+        <v>13.8567083753261</v>
       </c>
       <c r="F40" t="n">
-        <v>55.377027753537</v>
+        <v>55.3770277535371</v>
       </c>
       <c r="G40" t="n">
-        <v>13.856708375453</v>
+        <v>13.8567083753261</v>
       </c>
       <c r="H40" t="s">
         <v>185</v>
@@ -3540,7 +3459,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
         <v>55.3770277535375</v>
@@ -3549,16 +3468,16 @@
         <v>55.3770277535375</v>
       </c>
       <c r="D41" t="n">
-        <v>13.8407587735368</v>
+        <v>13.8407587708962</v>
       </c>
       <c r="E41" t="n">
-        <v>13.8407587735368</v>
+        <v>13.8407587708962</v>
       </c>
       <c r="F41" t="n">
-        <v>55.377027753537</v>
+        <v>55.3770277535371</v>
       </c>
       <c r="G41" t="n">
-        <v>13.8407587735368</v>
+        <v>13.8407587708962</v>
       </c>
       <c r="H41" t="s">
         <v>186</v>
@@ -3575,16 +3494,16 @@
         <v>54.743586604495</v>
       </c>
       <c r="D42" t="n">
-        <v>13.8043829335937</v>
+        <v>13.8043829273096</v>
       </c>
       <c r="E42" t="n">
-        <v>13.8043829335937</v>
+        <v>13.8043829273096</v>
       </c>
       <c r="F42" t="n">
-        <v>54.7435866044944</v>
+        <v>54.7435866044946</v>
       </c>
       <c r="G42" t="n">
-        <v>13.8043829335937</v>
+        <v>13.8043829273096</v>
       </c>
       <c r="H42" t="s">
         <v>187</v>
@@ -3592,7 +3511,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
         <v>54.743586604495</v>
@@ -3601,24 +3520,24 @@
         <v>54.743586604495</v>
       </c>
       <c r="D43" t="n">
-        <v>13.7424380846284</v>
+        <v>13.7424380794005</v>
       </c>
       <c r="E43" t="n">
-        <v>13.7424380846284</v>
+        <v>13.7424380794005</v>
       </c>
       <c r="F43" t="n">
-        <v>54.7435866044944</v>
+        <v>54.7435866044946</v>
       </c>
       <c r="G43" t="n">
-        <v>13.7424380846284</v>
+        <v>13.7424380794005</v>
       </c>
       <c r="H43" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
         <v>54.743586604495</v>
@@ -3627,24 +3546,24 @@
         <v>54.743586604495</v>
       </c>
       <c r="D44" t="n">
-        <v>13.654924226641</v>
+        <v>13.6549242271691</v>
       </c>
       <c r="E44" t="n">
-        <v>13.654924226641</v>
+        <v>13.6549242271691</v>
       </c>
       <c r="F44" t="n">
-        <v>54.7435866044944</v>
+        <v>54.7435866044946</v>
       </c>
       <c r="G44" t="n">
-        <v>13.654924226641</v>
+        <v>13.6549242271691</v>
       </c>
       <c r="H44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
         <v>54.743586604495</v>
@@ -3653,19 +3572,19 @@
         <v>54.743586604495</v>
       </c>
       <c r="D45" t="n">
-        <v>13.5418413596314</v>
+        <v>13.5418413706153</v>
       </c>
       <c r="E45" t="n">
-        <v>13.5418413596314</v>
+        <v>13.5418413706153</v>
       </c>
       <c r="F45" t="n">
-        <v>54.7435866044944</v>
+        <v>54.7435866044946</v>
       </c>
       <c r="G45" t="n">
-        <v>13.5418413596314</v>
+        <v>13.5418413706153</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
@@ -3679,24 +3598,24 @@
         <v>54.3138842961305</v>
       </c>
       <c r="D46" t="n">
-        <v>13.4031894835996</v>
+        <v>13.4031895097391</v>
       </c>
       <c r="E46" t="n">
-        <v>13.4031894835996</v>
+        <v>13.4031895097391</v>
       </c>
       <c r="F46" t="n">
-        <v>54.3138842961299</v>
+        <v>54.31388429613</v>
       </c>
       <c r="G46" t="n">
-        <v>13.4031894835996</v>
+        <v>13.4031895097391</v>
       </c>
       <c r="H46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
         <v>54.3138842961305</v>
@@ -3705,24 +3624,24 @@
         <v>54.3138842961305</v>
       </c>
       <c r="D47" t="n">
-        <v>13.41784136936</v>
+        <v>13.417841391106</v>
       </c>
       <c r="E47" t="n">
-        <v>13.41784136936</v>
+        <v>13.417841391106</v>
       </c>
       <c r="F47" t="n">
-        <v>54.3138842961299</v>
+        <v>54.31388429613</v>
       </c>
       <c r="G47" t="n">
-        <v>13.41784136936</v>
+        <v>13.417841391106</v>
       </c>
       <c r="H47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
         <v>54.3138842961305</v>
@@ -3731,24 +3650,24 @@
         <v>54.3138842961305</v>
       </c>
       <c r="D48" t="n">
-        <v>13.5857970169127</v>
+        <v>13.5857970147159</v>
       </c>
       <c r="E48" t="n">
-        <v>13.5857970169127</v>
+        <v>13.5857970147159</v>
       </c>
       <c r="F48" t="n">
-        <v>54.3138842961299</v>
+        <v>54.31388429613</v>
       </c>
       <c r="G48" t="n">
-        <v>13.5857970169127</v>
+        <v>13.5857970147159</v>
       </c>
       <c r="H48" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
         <v>54.3138842961305</v>
@@ -3757,16 +3676,16 @@
         <v>54.3138842961305</v>
       </c>
       <c r="D49" t="n">
-        <v>13.9070564262576</v>
+        <v>13.907056380569</v>
       </c>
       <c r="E49" t="n">
-        <v>13.9070564262576</v>
+        <v>13.907056380569</v>
       </c>
       <c r="F49" t="n">
-        <v>54.3138842961299</v>
+        <v>54.31388429613</v>
       </c>
       <c r="G49" t="n">
-        <v>13.9070564262576</v>
+        <v>13.907056380569</v>
       </c>
       <c r="H49" t="s">
         <v>189</v>
@@ -3783,24 +3702,24 @@
         <v>59.2742889123942</v>
       </c>
       <c r="D50" t="n">
-        <v>14.3816195973948</v>
+        <v>14.3816194886651</v>
       </c>
       <c r="E50" t="n">
-        <v>14.3816195973948</v>
+        <v>14.3816194886651</v>
       </c>
       <c r="F50" t="n">
-        <v>59.2742889123937</v>
+        <v>59.2742889123939</v>
       </c>
       <c r="G50" t="n">
-        <v>14.3816195973948</v>
+        <v>14.3816194886651</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
         <v>59.2742889123942</v>
@@ -3809,24 +3728,24 @@
         <v>59.2742889123942</v>
       </c>
       <c r="D51" t="n">
-        <v>14.7462259181311</v>
+        <v>14.7462258276769</v>
       </c>
       <c r="E51" t="n">
-        <v>14.7462259181311</v>
+        <v>14.7462258276769</v>
       </c>
       <c r="F51" t="n">
-        <v>59.2742889123937</v>
+        <v>59.2742889123939</v>
       </c>
       <c r="G51" t="n">
-        <v>14.7462259181311</v>
+        <v>14.7462258276769</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
         <v>59.2742889123942</v>
@@ -3835,24 +3754,24 @@
         <v>59.2742889123942</v>
       </c>
       <c r="D52" t="n">
-        <v>15.0008753884666</v>
+        <v>15.0008753976044</v>
       </c>
       <c r="E52" t="n">
-        <v>15.0008753884666</v>
+        <v>15.0008753976044</v>
       </c>
       <c r="F52" t="n">
-        <v>59.2742889123937</v>
+        <v>59.2742889123939</v>
       </c>
       <c r="G52" t="n">
-        <v>15.0008753884666</v>
+        <v>15.0008753976044</v>
       </c>
       <c r="H52" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
         <v>59.2742889123942</v>
@@ -3861,19 +3780,19 @@
         <v>59.2742889123942</v>
       </c>
       <c r="D53" t="n">
-        <v>15.1455680084013</v>
+        <v>15.1455681984475</v>
       </c>
       <c r="E53" t="n">
-        <v>15.1455680084013</v>
+        <v>15.1455681984475</v>
       </c>
       <c r="F53" t="n">
-        <v>59.2742889123937</v>
+        <v>59.2742889123939</v>
       </c>
       <c r="G53" t="n">
-        <v>15.1455680084013</v>
+        <v>15.1455681984475</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54">
@@ -3887,24 +3806,24 @@
         <v>60.2736187198479</v>
       </c>
       <c r="D54" t="n">
-        <v>15.1803037779351</v>
+        <v>15.1803042302064</v>
       </c>
       <c r="E54" t="n">
-        <v>15.1803037779351</v>
+        <v>15.1803042302064</v>
       </c>
       <c r="F54" t="n">
-        <v>60.2736187198475</v>
+        <v>60.2736187198476</v>
       </c>
       <c r="G54" t="n">
-        <v>15.1803037779351</v>
+        <v>15.1803042302064</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
         <v>60.2736187198479</v>
@@ -3913,24 +3832,24 @@
         <v>60.2736187198479</v>
       </c>
       <c r="D55" t="n">
-        <v>15.1494384465594</v>
+        <v>15.1494388228121</v>
       </c>
       <c r="E55" t="n">
-        <v>15.1494384465594</v>
+        <v>15.1494388228121</v>
       </c>
       <c r="F55" t="n">
-        <v>60.2736187198475</v>
+        <v>60.2736187198476</v>
       </c>
       <c r="G55" t="n">
-        <v>15.1494384465594</v>
+        <v>15.1494388228121</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
         <v>60.2736187198479</v>
@@ -3939,24 +3858,24 @@
         <v>60.2736187198479</v>
       </c>
       <c r="D56" t="n">
-        <v>15.052972014274</v>
+        <v>15.0529719762648</v>
       </c>
       <c r="E56" t="n">
-        <v>15.052972014274</v>
+        <v>15.0529719762648</v>
       </c>
       <c r="F56" t="n">
-        <v>60.2736187198475</v>
+        <v>60.2736187198476</v>
       </c>
       <c r="G56" t="n">
-        <v>15.052972014274</v>
+        <v>15.0529719762648</v>
       </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
         <v>60.2736187198479</v>
@@ -3965,19 +3884,19 @@
         <v>60.2736187198479</v>
       </c>
       <c r="D57" t="n">
-        <v>14.8909044810791</v>
+        <v>14.8909036905644</v>
       </c>
       <c r="E57" t="n">
-        <v>14.8909044810791</v>
+        <v>14.8909036905644</v>
       </c>
       <c r="F57" t="n">
-        <v>60.2736187198475</v>
+        <v>60.2736187198476</v>
       </c>
       <c r="G57" t="n">
-        <v>14.8909044810791</v>
+        <v>14.8909036905644</v>
       </c>
       <c r="H57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58">
@@ -3991,24 +3910,24 @@
         <v>60.8433155826006</v>
       </c>
       <c r="D58" t="n">
-        <v>14.6632358469745</v>
+        <v>14.6632339657108</v>
       </c>
       <c r="E58" t="n">
-        <v>14.6632358469745</v>
+        <v>14.6632339657108</v>
       </c>
       <c r="F58" t="n">
-        <v>60.8433155826004</v>
+        <v>60.8433155826003</v>
       </c>
       <c r="G58" t="n">
-        <v>14.6632358469745</v>
+        <v>14.6632339657108</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
         <v>60.8433155826006</v>
@@ -4017,24 +3936,24 @@
         <v>60.8433155826006</v>
       </c>
       <c r="D59" t="n">
-        <v>14.7912056128029</v>
+        <v>14.7912040477451</v>
       </c>
       <c r="E59" t="n">
-        <v>14.7912056128029</v>
+        <v>14.7912040477451</v>
       </c>
       <c r="F59" t="n">
-        <v>60.8433155826004</v>
+        <v>60.8433155826003</v>
       </c>
       <c r="G59" t="n">
-        <v>14.7912056128029</v>
+        <v>14.7912040477451</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
         <v>60.8433155826006</v>
@@ -4043,24 +3962,24 @@
         <v>60.8433155826006</v>
       </c>
       <c r="D60" t="n">
-        <v>15.2748137785643</v>
+        <v>15.2748139366672</v>
       </c>
       <c r="E60" t="n">
-        <v>15.2748137785643</v>
+        <v>15.2748139366672</v>
       </c>
       <c r="F60" t="n">
-        <v>60.8433155826004</v>
+        <v>60.8433155826003</v>
       </c>
       <c r="G60" t="n">
-        <v>15.2748137785643</v>
+        <v>15.2748139366672</v>
       </c>
       <c r="H60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
         <v>60.8433155826006</v>
@@ -4069,19 +3988,19 @@
         <v>60.8433155826006</v>
       </c>
       <c r="D61" t="n">
-        <v>16.1140603442587</v>
+        <v>16.1140636324771</v>
       </c>
       <c r="E61" t="n">
-        <v>16.1140603442587</v>
+        <v>16.1140636324771</v>
       </c>
       <c r="F61" t="n">
-        <v>60.8433155826004</v>
+        <v>60.8433155826003</v>
       </c>
       <c r="G61" t="n">
-        <v>16.1140603442587</v>
+        <v>16.1140636324771</v>
       </c>
       <c r="H61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62">
@@ -4095,24 +4014,24 @@
         <v>75.2572981105059</v>
       </c>
       <c r="D62" t="n">
-        <v>17.3089453098859</v>
+        <v>17.3089531351749</v>
       </c>
       <c r="E62" t="n">
-        <v>17.3089453098859</v>
+        <v>17.3089531351749</v>
       </c>
       <c r="F62" t="n">
-        <v>75.2572981105056</v>
+        <v>75.2572981105057</v>
       </c>
       <c r="G62" t="n">
-        <v>17.3089453098859</v>
+        <v>17.3089531351749</v>
       </c>
       <c r="H62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
         <v>75.2572981105059</v>
@@ -4121,24 +4040,24 @@
         <v>75.2572981105059</v>
       </c>
       <c r="D63" t="n">
-        <v>18.389050983233</v>
+        <v>18.3890574932346</v>
       </c>
       <c r="E63" t="n">
-        <v>18.389050983233</v>
+        <v>18.3890574932346</v>
       </c>
       <c r="F63" t="n">
-        <v>75.2572981105056</v>
+        <v>75.2572981105057</v>
       </c>
       <c r="G63" t="n">
-        <v>18.389050983233</v>
+        <v>18.3890574932346</v>
       </c>
       <c r="H63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
         <v>75.2572981105059</v>
@@ -4147,24 +4066,24 @@
         <v>75.2572981105059</v>
       </c>
       <c r="D64" t="n">
-        <v>19.3543773642999</v>
+        <v>19.3543767066563</v>
       </c>
       <c r="E64" t="n">
-        <v>19.3543773642999</v>
+        <v>19.3543767066563</v>
       </c>
       <c r="F64" t="n">
-        <v>75.2572981105056</v>
+        <v>75.2572981105057</v>
       </c>
       <c r="G64" t="n">
-        <v>19.3543773642999</v>
+        <v>19.3543767066563</v>
       </c>
       <c r="H64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
         <v>75.2572981105059</v>
@@ -4173,19 +4092,19 @@
         <v>75.2572981105059</v>
       </c>
       <c r="D65" t="n">
-        <v>20.2049244530867</v>
+        <v>20.20491077544</v>
       </c>
       <c r="E65" t="n">
-        <v>20.2049244530867</v>
+        <v>20.20491077544</v>
       </c>
       <c r="F65" t="n">
-        <v>75.2572981105056</v>
+        <v>75.2572981105057</v>
       </c>
       <c r="G65" t="n">
-        <v>20.2049244530867</v>
+        <v>20.20491077544</v>
       </c>
       <c r="H65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66">
@@ -4199,24 +4118,24 @@
         <v>77.8600814196625</v>
       </c>
       <c r="D66" t="n">
-        <v>20.9406922495932</v>
+        <v>20.9406596995856</v>
       </c>
       <c r="E66" t="n">
-        <v>20.9406922495932</v>
+        <v>20.9406596995856</v>
       </c>
       <c r="F66" t="n">
         <v>77.8600814196625</v>
       </c>
       <c r="G66" t="n">
-        <v>20.9406922495932</v>
+        <v>20.9406596995856</v>
       </c>
       <c r="H66" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
         <v>77.8600814196625</v>
@@ -4225,24 +4144,24 @@
         <v>77.8600814196625</v>
       </c>
       <c r="D67" t="n">
-        <v>20.6447306103248</v>
+        <v>20.6447035313759</v>
       </c>
       <c r="E67" t="n">
-        <v>20.6447306103248</v>
+        <v>20.6447035313759</v>
       </c>
       <c r="F67" t="n">
         <v>77.8600814196625</v>
       </c>
       <c r="G67" t="n">
-        <v>20.6447306103248</v>
+        <v>20.6447035313759</v>
       </c>
       <c r="H67" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
         <v>77.8600814196625</v>
@@ -4251,16 +4170,16 @@
         <v>77.8600814196625</v>
       </c>
       <c r="D68" t="n">
-        <v>19.3170395352814</v>
+        <v>19.3170422708108</v>
       </c>
       <c r="E68" t="n">
-        <v>19.3170395352814</v>
+        <v>19.3170422708108</v>
       </c>
       <c r="F68" t="n">
         <v>77.8600814196625</v>
       </c>
       <c r="G68" t="n">
-        <v>19.3170395352814</v>
+        <v>19.3170422708108</v>
       </c>
       <c r="H68" t="s">
         <v>187</v>
@@ -4268,7 +4187,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
         <v>77.8600814196625</v>
@@ -4277,19 +4196,19 @@
         <v>77.8600814196625</v>
       </c>
       <c r="D69" t="n">
-        <v>16.9576190244632</v>
+        <v>16.9576759178903</v>
       </c>
       <c r="E69" t="n">
-        <v>16.9576190244632</v>
+        <v>16.9576759178903</v>
       </c>
       <c r="F69" t="n">
         <v>77.8600814196625</v>
       </c>
       <c r="G69" t="n">
-        <v>16.9576190244632</v>
+        <v>16.9576759178903</v>
       </c>
       <c r="H69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70">
@@ -4303,24 +4222,24 @@
         <v>59.6891023372636</v>
       </c>
       <c r="D70" t="n">
-        <v>13.56646907787</v>
+        <v>13.5666044726144</v>
       </c>
       <c r="E70" t="n">
-        <v>13.56646907787</v>
+        <v>13.5666044726144</v>
       </c>
       <c r="F70" t="n">
-        <v>59.6891023372635</v>
+        <v>59.6891023372637</v>
       </c>
       <c r="G70" t="n">
-        <v>13.56646907787</v>
+        <v>13.5666044726144</v>
       </c>
       <c r="H70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
         <v>59.6891023372636</v>
@@ -4329,24 +4248,24 @@
         <v>59.6891023372636</v>
       </c>
       <c r="D71" t="n">
-        <v>12.7523317018111</v>
+        <v>12.7524443391847</v>
       </c>
       <c r="E71" t="n">
-        <v>12.7523317018111</v>
+        <v>12.7524443391847</v>
       </c>
       <c r="F71" t="n">
-        <v>59.6891023372635</v>
+        <v>59.6891023372637</v>
       </c>
       <c r="G71" t="n">
-        <v>12.7523317018111</v>
+        <v>12.7524443391847</v>
       </c>
       <c r="H71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
         <v>59.6891023372636</v>
@@ -4355,24 +4274,24 @@
         <v>59.6891023372636</v>
       </c>
       <c r="D72" t="n">
-        <v>14.5152068962864</v>
+        <v>14.515195517601</v>
       </c>
       <c r="E72" t="n">
-        <v>14.5152068962864</v>
+        <v>14.515195517601</v>
       </c>
       <c r="F72" t="n">
-        <v>59.6891023372635</v>
+        <v>59.6891023372637</v>
       </c>
       <c r="G72" t="n">
-        <v>14.5152068962864</v>
+        <v>14.515195517601</v>
       </c>
       <c r="H72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
         <v>59.6891023372636</v>
@@ -4381,19 +4300,19 @@
         <v>59.6891023372636</v>
       </c>
       <c r="D73" t="n">
-        <v>18.8550946612959</v>
+        <v>18.8548580078635</v>
       </c>
       <c r="E73" t="n">
-        <v>18.8550946612959</v>
+        <v>18.8548580078635</v>
       </c>
       <c r="F73" t="n">
-        <v>59.6891023372635</v>
+        <v>59.6891023372637</v>
       </c>
       <c r="G73" t="n">
-        <v>18.8550946612959</v>
+        <v>18.8548580078635</v>
       </c>
       <c r="H73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74">
@@ -4407,24 +4326,24 @@
         <v>121.695219519286</v>
       </c>
       <c r="D74" t="n">
-        <v>25.7719949968397</v>
+        <v>25.7714318099721</v>
       </c>
       <c r="E74" t="n">
-        <v>25.7719949968397</v>
+        <v>25.7714318099721</v>
       </c>
       <c r="F74" t="n">
         <v>121.695219519286</v>
       </c>
       <c r="G74" t="n">
-        <v>25.7719949968397</v>
+        <v>25.7714318099721</v>
       </c>
       <c r="H74" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
         <v>121.695219519286</v>
@@ -4433,24 +4352,24 @@
         <v>121.695219519286</v>
       </c>
       <c r="D75" t="n">
-        <v>30.3994790842499</v>
+        <v>30.3990105587552</v>
       </c>
       <c r="E75" t="n">
-        <v>30.3994790842499</v>
+        <v>30.3990105587552</v>
       </c>
       <c r="F75" t="n">
         <v>121.695219519286</v>
       </c>
       <c r="G75" t="n">
-        <v>30.3994790842499</v>
+        <v>30.3990105587552</v>
       </c>
       <c r="H75" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
         <v>121.695219519286</v>
@@ -4459,24 +4378,24 @@
         <v>121.695219519286</v>
       </c>
       <c r="D76" t="n">
-        <v>32.7375469235266</v>
+        <v>32.737594254213</v>
       </c>
       <c r="E76" t="n">
-        <v>32.7375469235266</v>
+        <v>32.737594254213</v>
       </c>
       <c r="F76" t="n">
         <v>121.695219519286</v>
       </c>
       <c r="G76" t="n">
-        <v>32.7375469235266</v>
+        <v>32.737594254213</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
         <v>121.695219519286</v>
@@ -4485,19 +4404,19 @@
         <v>121.695219519286</v>
       </c>
       <c r="D77" t="n">
-        <v>32.7861985146697</v>
+        <v>32.7871828963454</v>
       </c>
       <c r="E77" t="n">
-        <v>32.7861985146697</v>
+        <v>32.7871828963454</v>
       </c>
       <c r="F77" t="n">
         <v>121.695219519286</v>
       </c>
       <c r="G77" t="n">
-        <v>32.7861985146697</v>
+        <v>32.7871828963454</v>
       </c>
       <c r="H77" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78">
@@ -4511,24 +4430,24 @@
         <v>119.044048424551</v>
       </c>
       <c r="D78" t="n">
-        <v>30.5454338576793</v>
+        <v>30.5477764851525</v>
       </c>
       <c r="E78" t="n">
-        <v>30.5454338576793</v>
+        <v>30.5477764851525</v>
       </c>
       <c r="F78" t="n">
         <v>119.044048424551</v>
       </c>
       <c r="G78" t="n">
-        <v>30.5454338576793</v>
+        <v>30.5477764851525</v>
       </c>
       <c r="H78" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
         <v>119.044048424551</v>
@@ -4537,24 +4456,24 @@
         <v>119.044048424551</v>
       </c>
       <c r="D79" t="n">
-        <v>29.3353592942665</v>
+        <v>29.3373081690694</v>
       </c>
       <c r="E79" t="n">
-        <v>29.3353592942665</v>
+        <v>29.3373081690694</v>
       </c>
       <c r="F79" t="n">
         <v>119.044048424551</v>
       </c>
       <c r="G79" t="n">
-        <v>29.3353592942665</v>
+        <v>29.3373081690694</v>
       </c>
       <c r="H79" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
         <v>119.044048424551</v>
@@ -4563,24 +4482,24 @@
         <v>119.044048424551</v>
       </c>
       <c r="D80" t="n">
-        <v>29.1559748244314</v>
+        <v>29.1557779480963</v>
       </c>
       <c r="E80" t="n">
-        <v>29.1559748244314</v>
+        <v>29.1557779480963</v>
       </c>
       <c r="F80" t="n">
         <v>119.044048424551</v>
       </c>
       <c r="G80" t="n">
-        <v>29.1559748244314</v>
+        <v>29.1557779480963</v>
       </c>
       <c r="H80" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
         <v>119.044048424551</v>
@@ -4589,19 +4508,19 @@
         <v>119.044048424551</v>
       </c>
       <c r="D81" t="n">
-        <v>30.0072804481739</v>
+        <v>30.0031858222331</v>
       </c>
       <c r="E81" t="n">
-        <v>30.0072804481739</v>
+        <v>30.0031858222331</v>
       </c>
       <c r="F81" t="n">
         <v>119.044048424551</v>
       </c>
       <c r="G81" t="n">
-        <v>30.0072804481739</v>
+        <v>30.0031858222331</v>
       </c>
       <c r="H81" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82">
@@ -4615,24 +4534,24 @@
         <v>128.696268567082</v>
       </c>
       <c r="D82" t="n">
-        <v>31.889276165494</v>
+        <v>31.8795317914798</v>
       </c>
       <c r="E82" t="n">
-        <v>31.889276165494</v>
+        <v>31.8795317914798</v>
       </c>
       <c r="F82" t="n">
         <v>128.696268567082</v>
       </c>
       <c r="G82" t="n">
-        <v>31.889276165494</v>
+        <v>31.8795317914798</v>
       </c>
       <c r="H82" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
         <v>128.696268567082</v>
@@ -4641,24 +4560,24 @@
         <v>128.696268567082</v>
       </c>
       <c r="D83" t="n">
-        <v>32.7559908429326</v>
+        <v>32.7478843192948</v>
       </c>
       <c r="E83" t="n">
-        <v>32.7559908429326</v>
+        <v>32.7478843192948</v>
       </c>
       <c r="F83" t="n">
         <v>128.696268567082</v>
       </c>
       <c r="G83" t="n">
-        <v>32.7559908429326</v>
+        <v>32.7478843192948</v>
       </c>
       <c r="H83" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
         <v>128.696268567082</v>
@@ -4667,24 +4586,24 @@
         <v>128.696268567082</v>
       </c>
       <c r="D84" t="n">
-        <v>32.6074244804897</v>
+        <v>32.6082434056779</v>
       </c>
       <c r="E84" t="n">
-        <v>32.6074244804897</v>
+        <v>32.6082434056779</v>
       </c>
       <c r="F84" t="n">
         <v>128.696268567082</v>
       </c>
       <c r="G84" t="n">
-        <v>32.6074244804897</v>
+        <v>32.6082434056779</v>
       </c>
       <c r="H84" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
         <v>128.696268567082</v>
@@ -4693,19 +4612,19 @@
         <v>128.696268567082</v>
       </c>
       <c r="D85" t="n">
-        <v>31.4435770781653</v>
+        <v>31.4606090506293</v>
       </c>
       <c r="E85" t="n">
-        <v>31.4435770781653</v>
+        <v>31.4606090506293</v>
       </c>
       <c r="F85" t="n">
         <v>128.696268567082</v>
       </c>
       <c r="G85" t="n">
-        <v>31.4435770781653</v>
+        <v>31.4606090506293</v>
       </c>
       <c r="H85" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86">
@@ -4719,24 +4638,24 @@
         <v>142.459073368014</v>
       </c>
       <c r="D86" t="n">
-        <v>29.2644486359593</v>
+        <v>29.3049812541489</v>
       </c>
       <c r="E86" t="n">
-        <v>29.2644486359593</v>
+        <v>29.3049812541489</v>
       </c>
       <c r="F86" t="n">
         <v>142.459073368014</v>
       </c>
       <c r="G86" t="n">
-        <v>29.2644486359593</v>
+        <v>29.3049812541489</v>
       </c>
       <c r="H86" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
         <v>142.459073368014</v>
@@ -4745,24 +4664,24 @@
         <v>142.459073368014</v>
       </c>
       <c r="D87" t="n">
-        <v>30.9329251414946</v>
+        <v>30.9666449706986</v>
       </c>
       <c r="E87" t="n">
-        <v>30.9329251414946</v>
+        <v>30.9666449706986</v>
       </c>
       <c r="F87" t="n">
         <v>142.459073368014</v>
       </c>
       <c r="G87" t="n">
-        <v>30.9329251414946</v>
+        <v>30.9666449706986</v>
       </c>
       <c r="H87" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
         <v>142.459073368014</v>
@@ -4771,24 +4690,24 @@
         <v>142.459073368014</v>
       </c>
       <c r="D88" t="n">
-        <v>36.4490065947712</v>
+        <v>36.4456002002785</v>
       </c>
       <c r="E88" t="n">
-        <v>36.4490065947712</v>
+        <v>36.4456002002785</v>
       </c>
       <c r="F88" t="n">
         <v>142.459073368014</v>
       </c>
       <c r="G88" t="n">
-        <v>36.4490065947712</v>
+        <v>36.4456002002785</v>
       </c>
       <c r="H88" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
         <v>142.459073368014</v>
@@ -4797,19 +4716,19 @@
         <v>142.459073368014</v>
       </c>
       <c r="D89" t="n">
-        <v>45.8126929957892</v>
+        <v>45.7418469428885</v>
       </c>
       <c r="E89" t="n">
-        <v>45.8126929957892</v>
+        <v>45.7418469428885</v>
       </c>
       <c r="F89" t="n">
         <v>142.459073368014</v>
       </c>
       <c r="G89" t="n">
-        <v>45.8126929957892</v>
+        <v>45.7418469428885</v>
       </c>
       <c r="H89" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90">
@@ -4823,24 +4742,24 @@
         <v>277.041901462439</v>
       </c>
       <c r="D90" t="n">
-        <v>59.0239843445485</v>
+        <v>58.8553851985286</v>
       </c>
       <c r="E90" t="n">
-        <v>59.0239843445485</v>
+        <v>58.8553851985286</v>
       </c>
       <c r="F90" t="n">
-        <v>277.041901462439</v>
+        <v>277.04190146244</v>
       </c>
       <c r="G90" t="n">
-        <v>59.0239843445485</v>
+        <v>58.8553851985286</v>
       </c>
       <c r="H90" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
         <v>277.041901462439</v>
@@ -4849,24 +4768,24 @@
         <v>277.041901462439</v>
       </c>
       <c r="D91" t="n">
-        <v>68.4030972924768</v>
+        <v>68.2628365676172</v>
       </c>
       <c r="E91" t="n">
-        <v>68.4030972924768</v>
+        <v>68.2628365676172</v>
       </c>
       <c r="F91" t="n">
-        <v>277.041901462439</v>
+        <v>277.04190146244</v>
       </c>
       <c r="G91" t="n">
-        <v>68.4030972924768</v>
+        <v>68.2628365676172</v>
       </c>
       <c r="H91" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
         <v>277.041901462439</v>
@@ -4875,24 +4794,24 @@
         <v>277.041901462439</v>
       </c>
       <c r="D92" t="n">
-        <v>73.950031839574</v>
+        <v>73.9642010501542</v>
       </c>
       <c r="E92" t="n">
-        <v>73.950031839574</v>
+        <v>73.9642010501542</v>
       </c>
       <c r="F92" t="n">
-        <v>277.041901462439</v>
+        <v>277.04190146244</v>
       </c>
       <c r="G92" t="n">
-        <v>73.950031839574</v>
+        <v>73.9642010501542</v>
       </c>
       <c r="H92" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
         <v>277.041901462439</v>
@@ -4901,19 +4820,19 @@
         <v>277.041901462439</v>
       </c>
       <c r="D93" t="n">
-        <v>75.6647879858401</v>
+        <v>75.9594786461396</v>
       </c>
       <c r="E93" t="n">
-        <v>75.6647879858401</v>
+        <v>75.9594786461396</v>
       </c>
       <c r="F93" t="n">
-        <v>277.041901462439</v>
+        <v>277.04190146244</v>
       </c>
       <c r="G93" t="n">
-        <v>75.6647879858401</v>
+        <v>75.9594786461396</v>
       </c>
       <c r="H93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94">
@@ -4927,24 +4846,24 @@
         <v>291.006844905312</v>
       </c>
       <c r="D94" t="n">
-        <v>73.5473657312752</v>
+        <v>74.2486693555735</v>
       </c>
       <c r="E94" t="n">
-        <v>73.5473657312752</v>
+        <v>74.2486693555735</v>
       </c>
       <c r="F94" t="n">
-        <v>291.006844905312</v>
+        <v>291.006844905313</v>
       </c>
       <c r="G94" t="n">
-        <v>73.5473657312752</v>
+        <v>74.2486693555735</v>
       </c>
       <c r="H94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
         <v>291.006844905312</v>
@@ -4953,24 +4872,24 @@
         <v>291.006844905312</v>
       </c>
       <c r="D95" t="n">
-        <v>72.3821350274704</v>
+        <v>72.9655623876489</v>
       </c>
       <c r="E95" t="n">
-        <v>72.3821350274704</v>
+        <v>72.9655623876489</v>
       </c>
       <c r="F95" t="n">
-        <v>291.006844905312</v>
+        <v>291.006844905313</v>
       </c>
       <c r="G95" t="n">
-        <v>72.3821350274704</v>
+        <v>72.9655623876489</v>
       </c>
       <c r="H95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
         <v>291.006844905312</v>
@@ -4979,16 +4898,16 @@
         <v>291.006844905312</v>
       </c>
       <c r="D96" t="n">
-        <v>72.1690958744257</v>
+        <v>72.1101577423658</v>
       </c>
       <c r="E96" t="n">
-        <v>72.1690958744257</v>
+        <v>72.1101577423658</v>
       </c>
       <c r="F96" t="n">
-        <v>291.006844905312</v>
+        <v>291.006844905313</v>
       </c>
       <c r="G96" t="n">
-        <v>72.1690958744257</v>
+        <v>72.1101577423658</v>
       </c>
       <c r="H96" t="s">
         <v>189</v>
@@ -4996,7 +4915,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
         <v>291.006844905312</v>
@@ -5005,227 +4924,19 @@
         <v>291.006844905312</v>
       </c>
       <c r="D97" t="n">
-        <v>72.908248272141</v>
+        <v>71.6824554197243</v>
       </c>
       <c r="E97" t="n">
-        <v>72.908248272141</v>
+        <v>71.6824554197243</v>
       </c>
       <c r="F97" t="n">
-        <v>291.006844905312</v>
+        <v>291.006844905313</v>
       </c>
       <c r="G97" t="n">
-        <v>72.908248272141</v>
+        <v>71.6824554197243</v>
       </c>
       <c r="H97" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98" t="n">
-        <v>307.942917651851</v>
-      </c>
-      <c r="C98" t="n">
-        <v>307.942917651851</v>
-      </c>
-      <c r="D98" t="n">
-        <v>74.5995922206163</v>
-      </c>
-      <c r="E98" t="n">
-        <v>74.5995922206163</v>
-      </c>
-      <c r="F98" t="n">
-        <v>307.94291765185</v>
-      </c>
-      <c r="G98" t="n">
-        <v>74.5995922206163</v>
-      </c>
-      <c r="H98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" t="n">
-        <v>307.942917651851</v>
-      </c>
-      <c r="C99" t="n">
-        <v>307.942917651851</v>
-      </c>
-      <c r="D99" t="n">
-        <v>76.230584676945</v>
-      </c>
-      <c r="E99" t="n">
-        <v>76.230584676945</v>
-      </c>
-      <c r="F99" t="n">
-        <v>307.94291765185</v>
-      </c>
-      <c r="G99" t="n">
-        <v>76.230584676945</v>
-      </c>
-      <c r="H99" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" t="n">
-        <v>307.942917651851</v>
-      </c>
-      <c r="C100" t="n">
-        <v>307.942917651851</v>
-      </c>
-      <c r="D100" t="n">
-        <v>77.8012256411269</v>
-      </c>
-      <c r="E100" t="n">
-        <v>77.8012256411269</v>
-      </c>
-      <c r="F100" t="n">
-        <v>307.94291765185</v>
-      </c>
-      <c r="G100" t="n">
-        <v>77.8012256411269</v>
-      </c>
-      <c r="H100" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" t="n">
-        <v>307.942917651851</v>
-      </c>
-      <c r="C101" t="n">
-        <v>307.942917651851</v>
-      </c>
-      <c r="D101" t="n">
-        <v>79.3115151131622</v>
-      </c>
-      <c r="E101" t="n">
-        <v>79.3115151131622</v>
-      </c>
-      <c r="F101" t="n">
-        <v>307.94291765185</v>
-      </c>
-      <c r="G101" t="n">
-        <v>79.3115151131622</v>
-      </c>
-      <c r="H101" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="C102" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="D102" t="n">
-        <v>80.7614530930508</v>
-      </c>
-      <c r="E102" t="n">
-        <v>80.7614530930508</v>
-      </c>
-      <c r="F102" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="G102" t="n">
-        <v>80.7614530930508</v>
-      </c>
-      <c r="H102" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="C103" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="D103" t="n">
-        <v>81.8489065779673</v>
-      </c>
-      <c r="E103" t="n">
-        <v>81.8489065779673</v>
-      </c>
-      <c r="F103" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="G103" t="n">
-        <v>81.8489065779673</v>
-      </c>
-      <c r="H103" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="C104" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="D104" t="n">
-        <v>82.5738755679115</v>
-      </c>
-      <c r="E104" t="n">
-        <v>82.5738755679115</v>
-      </c>
-      <c r="F104" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="G104" t="n">
-        <v>82.5738755679115</v>
-      </c>
-      <c r="H104" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="C105" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="D105" t="n">
-        <v>82.9363600628837</v>
-      </c>
-      <c r="E105" t="n">
-        <v>82.9363600628837</v>
-      </c>
-      <c r="F105" t="n">
-        <v>328.120595301813</v>
-      </c>
-      <c r="G105" t="n">
-        <v>82.9363600628837</v>
-      </c>
-      <c r="H105" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5244,10 +4955,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -5255,31 +4966,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0844513765938</v>
+        <v>10.0844513765939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0703589314736</v>
+        <v>10.0703589314737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0421740412334</v>
+        <v>10.0421740412335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>9.99989670587295</v>
+        <v>9.99989670587307</v>
       </c>
     </row>
     <row r="6">
@@ -5287,31 +4998,31 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9.94352692539238</v>
+        <v>9.94352692539255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0453207189408</v>
+        <v>10.045320718941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>10.3052780865183</v>
+        <v>10.3052780865185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7233990281248</v>
+        <v>10.7233990281249</v>
       </c>
     </row>
     <row r="10">
@@ -5319,12 +5030,12 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>11.2996835437604</v>
+        <v>11.2996835437603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>11.4115557925493</v>
@@ -5332,7 +5043,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>11.0590157744917</v>
@@ -5340,10 +5051,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>10.2420634895874</v>
+        <v>10.2420634895875</v>
       </c>
     </row>
     <row r="14">
@@ -5351,31 +5062,31 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>8.96069893783663</v>
+        <v>8.9606989378369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>8.19064475835768</v>
+        <v>8.19064475835792</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>7.93190095115061</v>
+        <v>7.93190095115062</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>8.18446751621541</v>
+        <v>8.18446751621499</v>
       </c>
     </row>
     <row r="18">
@@ -5383,31 +5094,31 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>8.9483444535521</v>
+        <v>8.94834445355102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>9.75886330147843</v>
+        <v>9.75886330147757</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>10.6160240599944</v>
+        <v>10.6160240599946</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>11.5198267290999</v>
+        <v>11.5198267291022</v>
       </c>
     </row>
     <row r="22">
@@ -5415,31 +5126,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>12.4702713087952</v>
+        <v>12.4702713088003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>13.078563515563</v>
+        <v>13.0785635155673</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>13.3447033494036</v>
+        <v>13.3447033494032</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>13.2686908103167</v>
+        <v>13.268690810308</v>
       </c>
     </row>
     <row r="26">
@@ -5447,31 +5158,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>12.8505258983026</v>
+        <v>12.8505258982817</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>12.6424971684946</v>
+        <v>12.6424971684772</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>12.6446046208928</v>
+        <v>12.6446046208946</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>12.8568482554972</v>
+        <v>12.8568482555339</v>
       </c>
     </row>
     <row r="30">
@@ -5479,31 +5190,31 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>13.2792280723077</v>
+        <v>13.2792280723951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>13.58358845287</v>
+        <v>13.5835884529427</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>13.7699293971841</v>
+        <v>13.7699293971768</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>13.8382509052499</v>
+        <v>13.8382509050973</v>
       </c>
     </row>
     <row r="34">
@@ -5511,31 +5222,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>13.7885529770675</v>
+        <v>13.7885529767043</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>13.7626118089717</v>
+        <v>13.7626118086696</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>13.7604274009627</v>
+        <v>13.7604274009933</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>13.7819997530404</v>
+        <v>13.7819997536753</v>
       </c>
     </row>
     <row r="38">
@@ -5543,31 +5254,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>13.8273288652048</v>
+        <v>13.8273288667156</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>13.8522317393424</v>
+        <v>13.8522317405992</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>13.856708375453</v>
+        <v>13.8567083753261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>13.8407587735368</v>
+        <v>13.8407587708962</v>
       </c>
     </row>
     <row r="42">
@@ -5575,31 +5286,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>13.8043829335937</v>
+        <v>13.8043829273096</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>13.7424380846284</v>
+        <v>13.7424380794005</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>13.654924226641</v>
+        <v>13.6549242271691</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>13.5418413596314</v>
+        <v>13.5418413706153</v>
       </c>
     </row>
     <row r="46">
@@ -5607,31 +5318,31 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>13.4031894835996</v>
+        <v>13.4031895097391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>13.41784136936</v>
+        <v>13.417841391106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>13.5857970169127</v>
+        <v>13.5857970147159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>13.9070564262576</v>
+        <v>13.907056380569</v>
       </c>
     </row>
     <row r="50">
@@ -5639,31 +5350,31 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>14.3816195973948</v>
+        <v>14.3816194886651</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>14.7462259181311</v>
+        <v>14.7462258276769</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>15.0008753884666</v>
+        <v>15.0008753976044</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>15.1455680084013</v>
+        <v>15.1455681984475</v>
       </c>
     </row>
     <row r="54">
@@ -5671,31 +5382,31 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>15.1803037779351</v>
+        <v>15.1803042302064</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>15.1494384465594</v>
+        <v>15.1494388228121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>15.052972014274</v>
+        <v>15.0529719762648</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>14.8909044810791</v>
+        <v>14.8909036905644</v>
       </c>
     </row>
     <row r="58">
@@ -5703,31 +5414,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>14.6632358469745</v>
+        <v>14.6632339657108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>14.7912056128029</v>
+        <v>14.7912040477451</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>15.2748137785643</v>
+        <v>15.2748139366672</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>16.1140603442587</v>
+        <v>16.1140636324771</v>
       </c>
     </row>
     <row r="62">
@@ -5735,31 +5446,31 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>17.3089453098859</v>
+        <v>17.3089531351749</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>18.389050983233</v>
+        <v>18.3890574932346</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>19.3543773642999</v>
+        <v>19.3543767066563</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>20.2049244530867</v>
+        <v>20.20491077544</v>
       </c>
     </row>
     <row r="66">
@@ -5767,31 +5478,31 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>20.9406922495932</v>
+        <v>20.9406596995856</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>20.6447306103248</v>
+        <v>20.6447035313759</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>19.3170395352814</v>
+        <v>19.3170422708108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>16.9576190244632</v>
+        <v>16.9576759178903</v>
       </c>
     </row>
     <row r="70">
@@ -5799,31 +5510,31 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>13.56646907787</v>
+        <v>13.5666044726144</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>12.7523317018111</v>
+        <v>12.7524443391847</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>14.5152068962864</v>
+        <v>14.515195517601</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>18.8550946612959</v>
+        <v>18.8548580078635</v>
       </c>
     </row>
     <row r="74">
@@ -5831,31 +5542,31 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>25.7719949968397</v>
+        <v>25.7714318099721</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>30.3994790842499</v>
+        <v>30.3990105587552</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>32.7375469235266</v>
+        <v>32.737594254213</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>32.7861985146697</v>
+        <v>32.7871828963454</v>
       </c>
     </row>
     <row r="78">
@@ -5863,31 +5574,31 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>30.5454338576793</v>
+        <v>30.5477764851525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>29.3353592942665</v>
+        <v>29.3373081690694</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>29.1559748244314</v>
+        <v>29.1557779480963</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>30.0072804481739</v>
+        <v>30.0031858222331</v>
       </c>
     </row>
     <row r="82">
@@ -5895,31 +5606,31 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>31.889276165494</v>
+        <v>31.8795317914798</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>32.7559908429326</v>
+        <v>32.7478843192948</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>32.6074244804897</v>
+        <v>32.6082434056779</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>31.4435770781653</v>
+        <v>31.4606090506293</v>
       </c>
     </row>
     <row r="86">
@@ -5927,31 +5638,31 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>29.2644486359593</v>
+        <v>29.3049812541489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>30.9329251414946</v>
+        <v>30.9666449706986</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>36.4490065947712</v>
+        <v>36.4456002002785</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>45.8126929957892</v>
+        <v>45.7418469428885</v>
       </c>
     </row>
     <row r="90">
@@ -5959,31 +5670,31 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>59.0239843445485</v>
+        <v>58.8553851985286</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>68.4030972924768</v>
+        <v>68.2628365676172</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>73.950031839574</v>
+        <v>73.9642010501542</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>75.6647879858401</v>
+        <v>75.9594786461396</v>
       </c>
     </row>
     <row r="94">
@@ -5991,71 +5702,71 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>73.5473657312752</v>
+        <v>74.2486693555735</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>72.3821350274704</v>
+        <v>72.9655623876489</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>72.1690958744257</v>
+        <v>72.1101577423658</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>72.908248272141</v>
+        <v>71.6824554197243</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>74.5995922206163</v>
+        <v>71.9413795840191</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>76.230584676945</v>
+        <v>70.9483416625835</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>77.8012256411269</v>
+        <v>69.1704785123168</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>79.3115151131622</v>
+        <v>67.0928666723907</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>80.7614530930508</v>
+        <v>64.90257707592</v>
       </c>
     </row>
     <row r="103">
@@ -6063,7 +5774,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>81.8489065779673</v>
+        <v>63.9296924864587</v>
       </c>
     </row>
     <row r="104">
@@ -6071,7 +5782,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>82.5738755679115</v>
+        <v>63.9993195439821</v>
       </c>
     </row>
     <row r="105">
@@ -6079,7 +5790,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>82.9363600628837</v>
+        <v>64.8247529164459</v>
       </c>
     </row>
     <row r="106">
@@ -6087,7 +5798,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>83.2452306688323</v>
+        <v>66.2691921839577</v>
       </c>
     </row>
     <row r="107">
@@ -6095,7 +5806,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>84.4557429981884</v>
+        <v>67.4969295436202</v>
       </c>
     </row>
     <row r="108">
@@ -6103,7 +5814,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>86.6559730228495</v>
+        <v>68.5381894452837</v>
       </c>
     </row>
     <row r="109">
@@ -6111,7 +5822,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>89.847740855067</v>
+        <v>69.4811779723836</v>
       </c>
     </row>
     <row r="110">
@@ -6119,7 +5830,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>93.6076212678031</v>
+        <v>70.3003708431267</v>
       </c>
     </row>
     <row r="111">
@@ -6127,7 +5838,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>96.8463981594373</v>
+        <v>71.3804310700388</v>
       </c>
     </row>
     <row r="112">
@@ -6135,7 +5846,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>99.3281417838681</v>
+        <v>72.5960953393115</v>
       </c>
     </row>
     <row r="113">
@@ -6143,7 +5854,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>100.915715947588</v>
+        <v>73.8010425872259</v>
       </c>
     </row>
     <row r="114">
@@ -6151,7 +5862,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>101.849542211976</v>
+        <v>74.9473404804067</v>
       </c>
     </row>
     <row r="115">
@@ -6159,7 +5870,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>102.894927570535</v>
+        <v>75.7678470820691</v>
       </c>
     </row>
     <row r="116">
@@ -6167,7 +5878,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>104.22885440477</v>
+        <v>76.326655781319</v>
       </c>
     </row>
     <row r="117">
@@ -6175,7 +5886,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>105.983744515502</v>
+        <v>76.7212042038408</v>
       </c>
     </row>
     <row r="118">
@@ -6183,7 +5894,7 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>108.064107316401</v>
+        <v>77.0001444849944</v>
       </c>
     </row>
     <row r="119">
@@ -6191,7 +5902,7 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>110.0708511263</v>
+        <v>77.3526090697982</v>
       </c>
     </row>
     <row r="120">
@@ -6199,7 +5910,7 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>111.940326656884</v>
+        <v>77.7710355772547</v>
       </c>
     </row>
     <row r="121">
@@ -6207,7 +5918,7 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>113.625244558773</v>
+        <v>78.228016854312</v>
       </c>
     </row>
     <row r="122">
@@ -6215,7 +5926,7 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>115.181923427024</v>
+        <v>78.7255449910112</v>
       </c>
     </row>
     <row r="123">
@@ -6223,7 +5934,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>116.79006055924</v>
+        <v>79.1767664535079</v>
       </c>
     </row>
     <row r="124">
@@ -6231,7 +5942,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>118.479194717663</v>
+        <v>79.6094217695468</v>
       </c>
     </row>
     <row r="125">
@@ -6239,7 +5950,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>120.266897454424</v>
+        <v>80.0572693864479</v>
       </c>
     </row>
     <row r="126">
@@ -6247,7 +5958,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>122.135312978589</v>
+        <v>80.5288716838493</v>
       </c>
     </row>
     <row r="127">
@@ -6255,7 +5966,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>124.041766766738</v>
+        <v>81.0806349430112</v>
       </c>
     </row>
     <row r="128">
@@ -6263,7 +5974,7 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>125.968270794874</v>
+        <v>81.6935639701363</v>
       </c>
     </row>
     <row r="129">
@@ -6271,7 +5982,7 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>127.899098026001</v>
+        <v>82.3408696393866</v>
       </c>
     </row>
     <row r="130">
@@ -6279,7 +5990,7 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>129.814023758376</v>
+        <v>83.0088506856906</v>
       </c>
     </row>
     <row r="131">
@@ -6287,7 +5998,7 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>131.67022552154</v>
+        <v>83.653294095832</v>
       </c>
     </row>
     <row r="132">
@@ -6295,7 +6006,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>133.462200477976</v>
+        <v>84.2760430692683</v>
       </c>
     </row>
     <row r="133">
@@ -6303,7 +6014,7 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>135.190634077262</v>
+        <v>84.8844596650834</v>
       </c>
     </row>
   </sheetData>
@@ -6322,10 +6033,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -6333,31 +6044,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0844513765938</v>
+        <v>10.0844513765939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0703589314736</v>
+        <v>10.0703589314737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0421740412334</v>
+        <v>10.0421740412335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>9.99989670587295</v>
+        <v>9.99989670587307</v>
       </c>
     </row>
     <row r="6">
@@ -6365,31 +6076,31 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9.94352692539238</v>
+        <v>9.94352692539255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0453207189408</v>
+        <v>10.045320718941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>10.3052780865183</v>
+        <v>10.3052780865185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7233990281248</v>
+        <v>10.7233990281249</v>
       </c>
     </row>
     <row r="10">
@@ -6397,12 +6108,12 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>11.2996835437604</v>
+        <v>11.2996835437603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>11.4115557925493</v>
@@ -6410,7 +6121,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>11.0590157744917</v>
@@ -6418,10 +6129,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>10.2420634895874</v>
+        <v>10.2420634895875</v>
       </c>
     </row>
     <row r="14">
@@ -6429,31 +6140,31 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>8.96069893783663</v>
+        <v>8.9606989378369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>8.19064475835768</v>
+        <v>8.19064475835792</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>7.93190095115061</v>
+        <v>7.93190095115062</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>8.18446751621541</v>
+        <v>8.18446751621499</v>
       </c>
     </row>
     <row r="18">
@@ -6461,31 +6172,31 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>8.9483444535521</v>
+        <v>8.94834445355102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>9.75886330147843</v>
+        <v>9.75886330147757</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>10.6160240599944</v>
+        <v>10.6160240599946</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>11.5198267290999</v>
+        <v>11.5198267291022</v>
       </c>
     </row>
     <row r="22">
@@ -6493,31 +6204,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>12.4702713087952</v>
+        <v>12.4702713088003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>13.078563515563</v>
+        <v>13.0785635155673</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>13.3447033494036</v>
+        <v>13.3447033494032</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>13.2686908103167</v>
+        <v>13.268690810308</v>
       </c>
     </row>
     <row r="26">
@@ -6525,31 +6236,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>12.8505258983026</v>
+        <v>12.8505258982817</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>12.6424971684946</v>
+        <v>12.6424971684772</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>12.6446046208928</v>
+        <v>12.6446046208946</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>12.8568482554972</v>
+        <v>12.8568482555339</v>
       </c>
     </row>
     <row r="30">
@@ -6557,31 +6268,31 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>13.2792280723077</v>
+        <v>13.2792280723951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>13.58358845287</v>
+        <v>13.5835884529427</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>13.7699293971841</v>
+        <v>13.7699293971768</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>13.8382509052499</v>
+        <v>13.8382509050973</v>
       </c>
     </row>
     <row r="34">
@@ -6589,31 +6300,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>13.7885529770675</v>
+        <v>13.7885529767043</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>13.7626118089717</v>
+        <v>13.7626118086696</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>13.7604274009627</v>
+        <v>13.7604274009933</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>13.7819997530404</v>
+        <v>13.7819997536753</v>
       </c>
     </row>
     <row r="38">
@@ -6621,31 +6332,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>13.8273288652048</v>
+        <v>13.8273288667156</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>13.8522317393424</v>
+        <v>13.8522317405992</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>13.856708375453</v>
+        <v>13.8567083753261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>13.8407587735368</v>
+        <v>13.8407587708962</v>
       </c>
     </row>
     <row r="42">
@@ -6653,31 +6364,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>13.8043829335937</v>
+        <v>13.8043829273096</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>13.7424380846284</v>
+        <v>13.7424380794005</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>13.654924226641</v>
+        <v>13.6549242271691</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>13.5418413596314</v>
+        <v>13.5418413706153</v>
       </c>
     </row>
     <row r="46">
@@ -6685,31 +6396,31 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>13.4031894835996</v>
+        <v>13.4031895097391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>13.41784136936</v>
+        <v>13.417841391106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>13.5857970169127</v>
+        <v>13.5857970147159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>13.9070564262576</v>
+        <v>13.907056380569</v>
       </c>
     </row>
     <row r="50">
@@ -6717,31 +6428,31 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>14.3816195973948</v>
+        <v>14.3816194886651</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>14.7462259181311</v>
+        <v>14.7462258276769</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>15.0008753884666</v>
+        <v>15.0008753976044</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>15.1455680084013</v>
+        <v>15.1455681984475</v>
       </c>
     </row>
     <row r="54">
@@ -6749,31 +6460,31 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>15.1803037779351</v>
+        <v>15.1803042302064</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>15.1494384465594</v>
+        <v>15.1494388228121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>15.052972014274</v>
+        <v>15.0529719762648</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>14.8909044810791</v>
+        <v>14.8909036905644</v>
       </c>
     </row>
     <row r="58">
@@ -6781,31 +6492,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>14.6632358469745</v>
+        <v>14.6632339657108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>14.7912056128029</v>
+        <v>14.7912040477451</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>15.2748137785643</v>
+        <v>15.2748139366672</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>16.1140603442587</v>
+        <v>16.1140636324771</v>
       </c>
     </row>
     <row r="62">
@@ -6813,31 +6524,31 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>17.3089453098859</v>
+        <v>17.3089531351749</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>18.389050983233</v>
+        <v>18.3890574932346</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>19.3543773642999</v>
+        <v>19.3543767066563</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>20.2049244530867</v>
+        <v>20.20491077544</v>
       </c>
     </row>
     <row r="66">
@@ -6845,31 +6556,31 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>20.9406922495932</v>
+        <v>20.9406596995856</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>20.6447306103248</v>
+        <v>20.6447035313759</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>19.3170395352814</v>
+        <v>19.3170422708108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>16.9576190244632</v>
+        <v>16.9576759178903</v>
       </c>
     </row>
     <row r="70">
@@ -6877,31 +6588,31 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>13.56646907787</v>
+        <v>13.5666044726144</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>12.7523317018111</v>
+        <v>12.7524443391847</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>14.5152068962864</v>
+        <v>14.515195517601</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>18.8550946612959</v>
+        <v>18.8548580078635</v>
       </c>
     </row>
     <row r="74">
@@ -6909,31 +6620,31 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>25.7719949968397</v>
+        <v>25.7714318099721</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>30.3994790842499</v>
+        <v>30.3990105587552</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>32.7375469235266</v>
+        <v>32.737594254213</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>32.7861985146697</v>
+        <v>32.7871828963454</v>
       </c>
     </row>
     <row r="78">
@@ -6941,31 +6652,31 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>30.5454338576793</v>
+        <v>30.5477764851525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>29.3353592942665</v>
+        <v>29.3373081690694</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>29.1559748244314</v>
+        <v>29.1557779480963</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>30.0072804481739</v>
+        <v>30.0031858222331</v>
       </c>
     </row>
     <row r="82">
@@ -6973,31 +6684,31 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>31.889276165494</v>
+        <v>31.8795317914798</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>32.7559908429326</v>
+        <v>32.7478843192948</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>32.6074244804897</v>
+        <v>32.6082434056779</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>31.4435770781653</v>
+        <v>31.4606090506293</v>
       </c>
     </row>
     <row r="86">
@@ -7005,31 +6716,31 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>29.2644486359593</v>
+        <v>29.3049812541489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>30.9329251414946</v>
+        <v>30.9666449706986</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>36.4490065947712</v>
+        <v>36.4456002002785</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>45.8126929957892</v>
+        <v>45.7418469428885</v>
       </c>
     </row>
     <row r="90">
@@ -7037,31 +6748,31 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>59.0239843445485</v>
+        <v>58.8553851985286</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>68.4030972924768</v>
+        <v>68.2628365676172</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>73.950031839574</v>
+        <v>73.9642010501542</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>75.6647879858401</v>
+        <v>75.9594786461396</v>
       </c>
     </row>
     <row r="94">
@@ -7069,71 +6780,71 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>73.5473657312752</v>
+        <v>74.2486693555735</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>72.3821350274704</v>
+        <v>72.9655623876489</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>72.1690958744257</v>
+        <v>72.1101577423658</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>72.908248272141</v>
+        <v>71.6824554197243</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>74.5995922206163</v>
+        <v>71.9413795840191</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>76.230584676945</v>
+        <v>70.9483416625835</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>77.8012256411269</v>
+        <v>69.1704785123168</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>79.3115151131622</v>
+        <v>67.0928666723907</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>80.7614530930508</v>
+        <v>64.90257707592</v>
       </c>
     </row>
     <row r="103">
@@ -7141,7 +6852,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>81.8489065779673</v>
+        <v>63.9296924864587</v>
       </c>
     </row>
     <row r="104">
@@ -7149,7 +6860,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>82.5738755679115</v>
+        <v>63.9993195439821</v>
       </c>
     </row>
     <row r="105">
@@ -7157,7 +6868,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>82.9363600628837</v>
+        <v>64.8247529164459</v>
       </c>
     </row>
     <row r="106">
@@ -7165,7 +6876,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>83.2452306688323</v>
+        <v>66.2691921839577</v>
       </c>
     </row>
     <row r="107">
@@ -7173,7 +6884,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>84.4557429981884</v>
+        <v>67.4969295436202</v>
       </c>
     </row>
     <row r="108">
@@ -7181,7 +6892,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>86.6559730228495</v>
+        <v>68.5381894452837</v>
       </c>
     </row>
     <row r="109">
@@ -7189,7 +6900,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>89.847740855067</v>
+        <v>69.4811779723836</v>
       </c>
     </row>
     <row r="110">
@@ -7197,7 +6908,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>93.6076212678031</v>
+        <v>70.3003708431267</v>
       </c>
     </row>
     <row r="111">
@@ -7205,7 +6916,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>96.8463981594373</v>
+        <v>71.3804310700388</v>
       </c>
     </row>
     <row r="112">
@@ -7213,7 +6924,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>99.3281417838681</v>
+        <v>72.5960953393115</v>
       </c>
     </row>
     <row r="113">
@@ -7221,7 +6932,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>100.915715947588</v>
+        <v>73.8010425872259</v>
       </c>
     </row>
     <row r="114">
@@ -7229,7 +6940,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>101.849542211976</v>
+        <v>74.9473404804067</v>
       </c>
     </row>
     <row r="115">
@@ -7237,7 +6948,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>102.894927570535</v>
+        <v>75.7678470820691</v>
       </c>
     </row>
     <row r="116">
@@ -7245,7 +6956,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>104.22885440477</v>
+        <v>76.326655781319</v>
       </c>
     </row>
     <row r="117">
@@ -7253,7 +6964,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>105.983744515502</v>
+        <v>76.7212042038408</v>
       </c>
     </row>
     <row r="118">
@@ -7261,7 +6972,7 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>108.064107316401</v>
+        <v>77.0001444849944</v>
       </c>
     </row>
     <row r="119">
@@ -7269,7 +6980,7 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>110.0708511263</v>
+        <v>77.3526090697982</v>
       </c>
     </row>
     <row r="120">
@@ -7277,7 +6988,7 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>111.940326656884</v>
+        <v>77.7710355772547</v>
       </c>
     </row>
     <row r="121">
@@ -7285,7 +6996,7 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>113.625244558773</v>
+        <v>78.228016854312</v>
       </c>
     </row>
     <row r="122">
@@ -7293,7 +7004,7 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>115.181923427024</v>
+        <v>78.7255449910112</v>
       </c>
     </row>
     <row r="123">
@@ -7301,7 +7012,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>116.79006055924</v>
+        <v>79.1767664535079</v>
       </c>
     </row>
     <row r="124">
@@ -7309,7 +7020,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>118.479194717663</v>
+        <v>79.6094217695468</v>
       </c>
     </row>
     <row r="125">
@@ -7317,7 +7028,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>120.266897454424</v>
+        <v>80.0572693864479</v>
       </c>
     </row>
     <row r="126">
@@ -7325,7 +7036,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>122.135312978589</v>
+        <v>80.5288716838493</v>
       </c>
     </row>
     <row r="127">
@@ -7333,7 +7044,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>124.041766766738</v>
+        <v>81.0806349430112</v>
       </c>
     </row>
     <row r="128">
@@ -7341,7 +7052,7 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>125.968270794874</v>
+        <v>81.6935639701363</v>
       </c>
     </row>
     <row r="129">
@@ -7349,7 +7060,7 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>127.899098026001</v>
+        <v>82.3408696393866</v>
       </c>
     </row>
     <row r="130">
@@ -7357,7 +7068,7 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>129.814023758376</v>
+        <v>83.0088506856906</v>
       </c>
     </row>
     <row r="131">
@@ -7365,7 +7076,7 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>131.67022552154</v>
+        <v>83.653294095832</v>
       </c>
     </row>
     <row r="132">
@@ -7373,7 +7084,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>133.462200477976</v>
+        <v>84.2760430692683</v>
       </c>
     </row>
     <row r="133">
@@ -7381,7 +7092,7 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>135.190634077262</v>
+        <v>84.8844596650834</v>
       </c>
     </row>
   </sheetData>
